--- a/results/comparison_PlainLLM/PlainLLM_results.xlsx
+++ b/results/comparison_PlainLLM/PlainLLM_results.xlsx
@@ -728,56 +728,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>_HAS_AGGREGATE_GRAD = True
-        """
-        Initializes the Adamax optimizer.
-        Args:
-        Keyword Args:
-        """
-        super(Adamax, self).__init__(name, **kwargs)
-        """
-        Creates the slots for the variables.
-        Args:
-        """
-        """
-        Prepares the local variables.
-        Args:
-        """
-        super(Adamax, self)._prepare_local(var_device, var_dtype, apply_state)
-        local_step = math_ops.cast(self.iterations + 1, var_dtype)
-        beta_1_t = array_ops.identity(self._get_hyper('beta_1', var_dtype))
-        beta_2_t = array_ops.identity(self._get_hyper('beta_2', var_dtype))
-        beta_1_power = math_ops.pow(beta_1_t, local_step)
-        lr_t = apply_state[var_device, var_dtype]['lr_t']
-        apply_state[var_device, var_dtype].update(dict(neg_scaled_lr=-lr_t / (1 - beta_1_power), epsilon=tensor_conversion.convert_to_tensor_v2_with_dispatch(self.epsilon, var_dtype), beta_1_t=beta_1_t, beta_1_power=beta_1_power, one_minus_beta_1_t=1 - beta_1_t, beta_2_t=beta_2_t, zero=array_ops.zeros((), dtype=dtypes.int64)))
-        """
-        Applies the gradients to the dense variable.
-        Args:
-        Returns:
-            An operation that applies the gradients to the variable.
-        """
-        var_device, var_dtype = (var.device, var.dtype.base_dtype)
-        coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
-        m = self.get_slot(var, 'm')
-        v = self.get_slot(var, 'v')
-        """
-        Applies the gradients to the sparse variable.
-        Args:
-        Returns:
-            An operation that applies the gradients to the variable.
-        """
-        var_device, var_dtype = (var.device, var.dtype.base_dtype)
-        coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
-        m = self.get_slot(var, 'm')
-        m_slice = array_ops.gather(m, indices, axis=coefficients['zero'])
-        m_t_slice = m_slice * coefficients['beta_1_t'] + grad * coefficients['one_minus_beta_1_t']
-            m_t = self._resource_scatter_update(m, indices, m_t_slice)
-        v = self.get_slot(var, 'v')
-        v_slice = array_ops.gather(v, indices, axis=coefficients['zero'])
-        v_t_slice = math_ops.maximum(v_slice * coefficients['beta_2_t'], math_ops.abs(grad))
-            v_t = self._resource_scatter_update(v, indices, v_t_slice)
-        var_slice = coefficients['neg_scaled_lr'] * (m_t_slice / (v_t_slice + coefficients['epsilon']))
-            var_update = self._resource_scatter_add(var, indices, var_slice)</t>
+          <t>"""
+    Creates the slots for the optimizer.
+    Args:
+    Returns:
+        None
+    """
+"""
+    Prepares the local state for the optimizer.
+    Args:
+    Returns:
+        None
+    """
+"""
+    Applies the optimizer to a dense resource variable.
+    Args:
+    Returns:
+        The updated variable.
+    Raises:
+    """
+"""
+    Applies the optimizer to a sparse resource variable.
+    Args:
+    Returns:
+        The updated variable and its slots.
+    Raises:
+    """</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -895,41 +871,22 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>"""
-        Applies the transformation to the input data X.
+        Transforms the data by aggregating features based on labels.
+        If a mean pooling function is used and the input data is not sparse,
+        it uses bincount to speed up computation.
         Parameters
         ----------
-            The input data.
+            The data to be transformed.
         Returns
         -------
-            Transformed data with aggregated features.
-        Raises
-        ------
-        Examples
-        --------
-        &gt;&gt;&gt; from sklearn.datasets import load_iris
-        &gt;&gt;&gt; from sklearn.preprocessing import LabelEncoder
-        &gt;&gt;&gt; from sklearn.pipeline import Pipeline
-        &gt;&gt;&gt; from sklearn.compose import ColumnTransformer
-        &gt;&gt;&gt; from sklearn.impute import SimpleImputer
-        # Create a sample dataset with labels
-        iris = load_iris()
-        le = LabelEncoder()
-        iris['label'] = le.fit_transform(iris['target'])
-        # Define the preprocessing pipeline
-        preprocessor = ColumnTransformer(
-            transformers=[('encoder', OneHotEncoder(), ['feature1', 'feature2'])],
-            remainder='passthrough'
-        )
-        # Define the aggregation transformer
-        agg_trans = AgglomerationTransform(pooling_func=np.mean)
-        # Create a pipeline with the preprocessing and aggregation steps
-        pipe = Pipeline(steps=[
-            ('preprocessor', preprocessor),
-            ('aggregator', agg_trans)
-        ])
-        # Fit and transform the data
-        X_transformed = pipe.fit_transform(iris.data, iris['label'])
-        """</t>
+            The transformed data.
+        """
+        check_is_fitted(self)
+        X = self._validate_data(X, reset=False)
+            size = np.bincount(self.labels_)
+            n_samples = X.shape[0]
+        else:
+            nX = np.array(nX).T</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1141,17 +1098,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Args:
-        Default value is 2.
-        If None it will default to `pool_size`.
-        Default value is 'valid'.
-        One of "channels_last" (default) or "channels_first".
-Returns:
-    None
-Raises:
-Examples:
-    &gt;&gt;&gt; avg_pool = AveragePooling1D(pool_size=3)
-    &gt;&gt;&gt; avg_pool.__dict__</t>
+          <t>Parameters
+----------
+    The instance itself (not a parameter to be set)
+    Pool size for the pooling operation. Default is 2.
+    Stride(s) for the pooling operation. If None, it will use the pool size.
+    Padding mode. Can be 'valid' or 'same'. Defaults to 'valid'.
+    Data format. Can be either 'channels_last' (default) or 'channels_first'.
+    Additional arguments passed to the parent class.
+Raises
+-----
+ValueError
+    If invalid values are provided for pool_size, strides, padding, or data_format.
+Examples
+--------
+&gt;&gt;&gt; avg_pool = AveragePooling1D(pool_size=3)
+&gt;&gt;&gt; # usage example here</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1363,17 +1325,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Args:
-        Defaults to (2, 2).
-        If None, it will default to the value of `pool_size`.
-        Defaults to 'valid'.
-        Defaults to None.
-Raises:
-Returns:
-    None
-Examples:
-    &gt;&gt;&gt; avg_pool = AveragePooling2D(pool_size=(3, 3), strides=2)
-    &gt;&gt;&gt; avg_pool</t>
+          <t>**kwargs):</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1509,20 +1461,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Initializes the AveragePooling3D layer.
-    Args:
-            of the pooling region.
-            Strides for the pooling operation. Defaults to None and will be set
-            to `pool_size`.
-            Defaults to `'valid'`.
-            Defaults to None and will be set to the default data format of the
-            underlying layer.
-    Raises:
-    Returns:
-        None
-    Examples:
-        &gt;&gt;&gt; pool = AveragePooling3D(pool_size=(2, 2, 2))
-        &gt;&gt;&gt; pool = AveragePooling3D(strides=(1, 1, 1), padding='same')</t>
+          <t>Args:
+Raises:
+Returns:
+    None
+Examples:
+    &gt;&gt;&gt; pooling = AveragePooling3D(pool_size=(2, 2, 2), strides=1)
+    &gt;&gt;&gt; pooling = AveragePooling3D(padding='same')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2515,270 +2460,40 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>"""
-        Initialize the model with the given parameters.
-        Parameters
-        ----------
-            The number of components in the mixture.
-            The type of covariance matrix used in the model. Options are 
-            'full', 'tied', 'diag', or 'spherical'.
-            The tolerance for convergence.
-            The regularization coefficient for the covariance matrices.
-            The maximum number of iterations.
-            The number of initializations to perform.
-            The initialization method. Options are 'kmeans' or 'random'.
-            The type of prior distribution for the concentration parameters 
-            of the Dirichlet process mixture model. Options are 
-            'dirichlet_process' or 'dirichlet_distribution'.
-            The prior distribution for the concentration parameters of the 
-            Dirichlet process mixture model.
-            The prior precision matrix for the means.
-            The prior distribution for the means.
-            The prior distribution for the degrees of freedom in the Wishart 
-            distribution.
-            The prior distribution for the covariance matrices.
-            The seed used to initialize the random number generator.
-            Whether to use the previous model as a starting point.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Check if the given parameters are valid for the model.
-        Parameters
-        ----------
-            The data used to check the parameters.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Check if the weights parameters are valid.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Check if the means parameters are valid.
-        Parameters
-        ----------
-            The data used to check the parameters.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Check if the precision parameters are valid.
-        Parameters
-        ----------
-            The data used to check the parameters.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Check if the covariance prior parameter is valid.
-        Parameters
-        ----------
-            The data used to check the parameters.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Initialize the model with the given data and responsibilities.
-        Parameters
-        ----------
-            The data used to initialize the model.
-            The responsibilities of each component in the mixture.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Estimate the weights of the components in the mixture.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Estimate the means of the components in the mixture.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-            The data used to estimate the means.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Estimate the precisions of the components in the mixture.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-            The data used to estimate the means and precision matrices.
-            The variance-covariance matrix of the data.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Perform one step of the Expectation-Maximization algorithm to update 
-        the model parameters.
-        Parameters
-        ----------
-            The data used in the EM algorithm.
-            The log probabilities of each component in the mixture.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Compute the log weights of the components in the mixture.
-        Returns
-        -------
-        array-like
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Compute the log probability of the given data under the current model.
-        Parameters
-        ----------
-            The data used to compute the log probability.
-        Returns
-        -------
-        float
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Compute the lower bound on the log likelihood of the given data under 
-        the current model.
-        Parameters
-        ----------
-            The log probabilities of each component in the mixture.
-            The log probability of the normalizing constant.
-        Returns
-        -------
-        float
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Get the current model parameters.
-        Returns
-        -------
-        tuple
-            A tuple containing the current model parameters.
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Set the model parameters to the given values.
-        Parameters
-        ----------
-            A tuple containing the new model parameters.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Perform one step of the Expectation-Maximization algorithm to update 
-        the model parameters.
-        Parameters
-        ----------
-            The data used in the EM algorithm.
-            The log probabilities of each component in the mixture.
-        Returns
-        -------
-        None
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Compute the log weights of the components in the mixture.
-        Returns
-        -------
-        array-like
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
-        """
-        """
-        Compute the log probability of the given data under the current model.
-        Parameters
-        ----------
-            The data used to compute the log probability.
-        Returns
-        -------
-        float
-        Raises
-        ------
-        ValueError
-            If an invalid parameter is provided.
+          <t>max_iter=100, n_init=1, init_params='kmeans', weight_concentration_prior_type='dirichlet_process',
+                 weight_concentration_prior=None, mean_precision_prior=None, mean_prior=None,
+                 degrees_of_freedom_prior=None, covariance_prior=None, random_state=None, warm_start=False,
+                 verbose=0, verbose_interval=10):
+        ...
+        """
+        Check the parameters of the model.
+        Parameters:
+        Returns:
+            None
+        """
+        """
+        Perform the M-step of the EM algorithm.
+        Parameters:
+        Returns:
+            None
+        """
+        """
+        Estimate the log weights of the components.
+        Returns:
+        """
+        """
+        Estimate the log probability of the data under the model.
+        Parameters:
+        Returns:
+        """
+        """
+        Compute the lower bound on the evidence.
+        Parameters:
+        Returns:
+        """
+        """
+        Get the parameters of the model.
+        Returns:
         """</t>
         </is>
       </c>
@@ -3312,22 +3027,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Convolutional layer.
-This layer creates a convolutional layer that computes the spatial convolution from an input of shape `(batch_size, channels, rows, cols)` into an output of shape `(batch_size, filters, new_rows, new_cols)`.
-# Arguments
-        If a float, it is converted into an integer value by rounding to the nearest integer with `round`.
-        The ordering of the rows and columns dimensions in the input when it is 2D. When `data_format` is `"channels_last"` and `input_shape` is 3D, then `input_shape = [batch_size, rows, cols, channels]`. If `data_format` is `"channels_first"`, then `input_shape = [batch_size, channels, rows, cols]`.
-        The number of groups in which the input is split along the channel axis. In each group, the filters process different subsets of channels, followed by concatenating their results.
-        If you don't specify anything, no activation is applied (ie. "linear" activation).
-        If `True`, a bias vector is added. If False, no bias vector is added.
-        If None, no regularization is applied.
-# Returns
-    A tensor with shape `(batch_size, filters, new_rows, new_cols)`.
-# Raises
-# Examples
-    ```python
-inputs = Input(shape=(28, 28, 1))
-x = Conv(32, kernel_size=(3, 3), activation='relu')(inputs)</t>
+          <t>data_format=None, dilation_rate=1, groups=1, activation=None,
+                 use_bias=True, kernel_initializer='glorot_uniform',
+                 bias_initializer='zeros', kernel_regularizer=None,
+                 bias_regularizer=None, activity_regularizer=None,
+                 kernel_constraint=None, bias_constraint=None, trainable=True,
+                 name=None, conv_op=None, **kwargs):
+        super(Conv, self).__init__(trainable=trainable, name=name,
+                                   activity_regularizer=regularizers.get(
+                                       activity_regularizer), **kwargs)
+        ...
+        """
+        Builds the layer.
+        Args:
+        """
+        ...
+        """
+        Calls the layer.
+        Args:
+        Returns:
+            A 4D tensor with shape (batch_size, filters, spatial_shape[0], spatial_shape[1]).
+        """
+        ...</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -3543,20 +3264,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Initializes the Conv1D layer.
-    Args:
-    Raises:
-    Returns:
-        None
-    Examples:
-        &gt;&gt;&gt; conv1d = Conv1D(32, 3)
-        &gt;&gt;&gt; conv1d
-        Conv1D((None, 28, 32), kernel_size=(3,), strides=1,
-               padding='valid', data_format='channels_last',
-               dilation_rate=1, groups=1,
-               activation=None, use_bias=True,
-               kernel_initializer='glorot_uniform',
-               bias_initializer='zeros')</t>
+          <t>"""
+Initialize a 1D convolutional layer.
+Parameters
+----------
+    Number of feature maps.
+    Size of the kernel to be used in both spatial dimensions.
+    Stride size for both spatial dimensions. Defaults to 1.
+    Padding mode. Options are "valid" and "same". Defaults to "valid".
+    Data format of the input. Options are "channels_last" and "channels_first". Defaults to "channels_last".
+    Factor by which we upsample the filter weights in both spatial dimensions. Defaults to 1.
+    Number of groups partitioned between channels. Defaults to 1.
+    Activation function for the output. Defaults to None (no activation).
+    Whether the layer uses bias terms. Defaults to True.
+    Initializer for kernel weights. Defaults to "glorot_uniform".
+    Initializer for bias weights. Defaults to "zeros".
+    Regularization applied to the kernel weights. Defaults to None.
+    Regularization applied to the bias weights. Defaults to None.
+    Regularization applied to the output of the layer (i.e., the feature maps). Defaults to None.
+    Constraint applied to the kernel weights. Defaults to None.
+    Constraint applied to the bias weights. Defaults to None.
+Raises
+------
+ValueError
+    If invalid parameters are provided.
+Returns
+-------
+None
+Examples
+--------
+&gt;&gt;&gt; conv = Conv1D(32, (3,))
+&gt;&gt;&gt; model.add(conv)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -3952,27 +3690,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Here is the Python docstring for the given code:
+          <t>A Convolutional 1D Transpose layer.
+This layer performs a transpose convolution operation, also known as a deconvolution or fractionally strided convolution.
+It is often used in image upsampling operations.
+#### Arguments
+#### Returns
+The output tensor.
+#### Raises
+#### Examples
 ```python
-"""
-Conv1DTranspose Convolutional 1D Transpose Layer.
-This layer applies a convolution operation in reverse. It does the opposite of what a Conv1D layer would do.
-It takes an input with shape (batch_size, timesteps, features) and returns an output with shape (batch_size, new_timesteps, features).
-# Arguments
-        of the output. This is typically only used in transposed convolutions, e.g. when doing upsampling.
-        of the input. It is calculated as `dilation_rate[i] = dilation_rate[0]`.
-        - If string, one of "linear", "relu", "selu" or any previously registered activation function.
-        - If `tf.keras.layers.Layer` instance, it will be used instead of a default activation.
-# Returns
-    A tensor with shape `(batch_size, new_timesteps, features)`.
-# Raises
-# Examples
-    ```python
-conv_transpose_layer = Conv1DTranspose(
-    filters=32,
-    kernel_size=(2,),
-    strides=(2,)
-)</t>
+# Create a Conv1DTranspose layer with default settings
+conv = Conv1DTranspose(32, (3, 3))
+# Use the layer in a model
+model = Model(inputs=inputs, outputs=conv(inputs))</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -4224,14 +3954,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Initializes a Convolutional 2D layer.
-Args:
+          <t>Here is the Python docstring for the provided code:
+```python
+"""
+Initializes a 2D convolution layer.
+Parameters:
 Raises:
 Returns:
-    None
+    A 2D convolution layer instance.
 Examples:
-    &gt;&gt;&gt; Conv2D(32, (3, 3), activation='relu')
-    Conv2D instance with 32 filters, kernel size of (3, 3), and ReLU activation.</t>
+    &gt;&gt;&gt; conv = Conv2D(32, kernel_size=3)
+    &gt;&gt;&gt; conv</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -4708,22 +4441,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Convolutional 2D Transpose Layer.
-This layer performs a transposed convolution operation on the input data.
-It is often used in image deconvolution or upsampling tasks.
+          <t>Transposed convolution layer (also known as Deconvolutional layer).
+This layer creates a learnable, spatially-translated version of the input.
 #### Arguments
-#### Keyword Arguments
+        height and width dimensions. It can be an integer (same value for all spatial dimensions)
+        or a tuple of two integers, where the first is the vertical size and the second is the horizontal size.
+        It can be an integer (same value for both spatial dimensions) or a tuple of two
+        integers, where the first is the vertical stride and the second is the horizontal stride.
+        Default behavior when only one integer is specified is to use the same value for all spatial
+        dimensions.
+        set to 'valid' by default. Note that using a pad of 'same' with output_padding will be equivalent to using
+        the transpose convolution as a normal transposed convolution with a pad of 'valid'.
+        dimension in the output shape. Useful for efficient spatial transposition.
+        dimensions in the inputs shapes. Default is channels_last (rows, cols, channels).
+        width and height. It can be an integer (same value for both spatial dimensions) or a tuple of two
+        integers, where the first is the vertical dilation rate and the second is the horizontal dilation rate.
 #### Returns
-* Output tensor with shape `(batch_size, filters, out_height, out_width)` if data_format='channels_last'.
+    The output shape of the layer has the same number of dimensions as the input shape,
+        then `(batch_size, filters, input_height, input_width)`.
+        If `data_format='channels_last'`, then `(batch_size, input_height, input_width, filters)`.
 #### Raises
 #### Examples
-```python
-# Define an input layer with a batch size of 1 and an image size of 28x28
-input_layer = Input(shape=(28, 28, 1))
-# Apply the convolutional transpose layer
-output = Conv2DTranspose(64, (3, 3), activation='relu', padding='same')(input_layer)
-# Print the output shape
-print(output.shape)</t>
+    ```python
+x = Input((32, 32, 3))
+y = Conv2DTranspose(64, (3, 3), activation='relu')(x)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -4956,13 +4697,10 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>Initializes a 3D convolution layer.
-Args:
+Parameters:
+Raises:
 Returns:
-    None
-Raises:
-Examples:
-    &gt;&gt;&gt; Conv3D(32, (3, 3, 3), activation='relu')
-    A 3D convolution layer with 32 filters and a kernel size of (3, 3, 3) using ReLU activation.</t>
+    None</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -5456,36 +5194,123 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transposed convolutional layer (also known as a deconvolutional layer).
-This layer creates a transposed convolutional layer, which can be used to upsample an input tensor.
-Parameters
-----------
-    Number of filters in the convolutional layer.
-    Size of the kernel to be used in the convolutional layer.
-    Stride size for the convolutional layer.
-    Padding mode to use. One of `'valid'` or `'same'`.
-    Additional padding to be added after upsampling.
-    Data format of the input tensor. One of `'channels_first'` or `'channels_last'`.
-    Dilation rate to use in the convolutional layer.
-    Activation function to be applied after the convolutional layer.
-    Whether to include a bias term in the convolutional layer.
-    Initializer for the kernel weights of the convolutional layer.
-    Initializer for the bias terms of the convolutional layer.
-    Regularization term to be applied to the kernel weights of the convolutional layer.
-    Regularization term to be applied to the bias terms of the convolutional layer.
-    Regularization term to be applied to the output of the convolutional layer.
-    Constraint to be applied to the kernel weights of the convolutional layer.
-    Constraint to be applied to the bias terms of the convolutional layer.
-Returns
--------
-    The output of the transposed convolutional layer.
-Raises
-------
-Examples
---------
-&gt;&gt;&gt; conv_transpose = Conv3DTranspose(32, (3, 3, 3), strides=(2, 2, 2))
-&gt;&gt;&gt; inputs = tf.random.normal((1, 10, 10, 10, 10))
-&gt;&gt;&gt; outputs = conv_transpose(inputs)</t>
+          <t>**kwargs):
+    """
+    Initializes a `Conv3DTranspose` instance.
+    Args:
+                     width and height of the 3D convolution window.
+                     Can be a single integer to specify the same value for all spatial dimensions.
+                 Can be a single integer to specify the same value for all spatial dimensions.
+                 Note that both options are supported but the behavior is different from TF.
+                        allow padding when downscaling in conjunction with `strides`.
+                     The ordering of dimensions in the inputs. 
+                     They have to match each other from bottom to top in this case.
+                       dilation rates for dilated convolution.
+                       Can be a single integer to specify the same value for all spatial dimensions.
+                    Can be a string (name of a built-in activation function),
+                    or alternatively a Tensor or callable activation function.
+                    If you don't specify any activation then no activation
+                            If `None` (which is the default), will call the weight
+                            initializer native to the current backend.
+                          If `None` (which is the default), will call the bias
+                          weight initializer native to the current backend.
+                           If `None` (which is the default), no regularization is applied.
+                         If `None` (which is the default), no regularization is applied.
+                             Only one of `kernel_regularizer` or `activity_regularizer`
+                             should be set. If none are set, the layer will not
+                             be regularized.
+                           If `None` (which is the default), no constraint is applied.
+                         If `None` (which is the default), no constraint is applied.
+    Raises:
+    """
+    super(Conv3DTranspose, self).__init__(filters=filters,
+                                          kernel_size=kernel_size,
+                                          strides=strides,
+                                          padding=padding,
+                                          data_format=data_format,
+                                          dilation_rate=dilation_rate,
+                                          activation=activations.get(activation),
+                                          use_bias=use_bias,
+                                          kernel_initializer=initializers.get(kernel_initializer),
+                                          bias_initializer=initializers.get(bias_initializer),
+                                          kernel_regularizer=regularizers.get(kernel_regularizer),
+                                          bias_regularizer=regularizers.get(bias_regularizer),
+                                          activity_regularizer=regularizers.get(activity_regularizer),
+                                          kernel_constraint=constraints.get(kernel_constraint),
+                                          bias_constraint=constraints.get(bias_constraint),
+                                          **kwargs)
+                raise ValueError('Stride ' + str(self.strides) + ' must be greater than output padding ' + str(self.output_padding))
+"""
+    Builds the layer.
+    Args:
+    Raises:
+    """
+    input_shape = tensor_shape.TensorShape(input_shape)
+    channel_axis = self._get_channel_axis()
+    input_dim = int(input_shape[channel_axis])
+    kernel_shape = self.kernel_size + (self.filters, input_dim)
+                                  regularizer=self.kernel_regularizer, constraint=self.kernel_constraint,
+                                  trainable=True, dtype=self.dtype)
+                                    regularizer=self.bias_regularizer, constraint=self.bias_constraint,
+                                    trainable=True, dtype=self.dtype)
+    else:
+"""
+    This is where the layer's magic happens.
+    Args:
+    Returns:
+        Output tensor.
+    """
+    inputs_shape = array_ops.shape(inputs)
+    batch_size = inputs_shape[0]
+        d_axis, h_axis, w_axis = (2, 3, 4)
+    else:
+        d_axis, h_axis, w_axis = (1, 2, 3)
+    depth = inputs_shape[d_axis]
+    height = inputs_shape[h_axis]
+    width = inputs_shape[w_axis]
+    kernel_d, kernel_h, kernel_w = self.kernel_size
+    stride_d, stride_h, stride_w = self.strides
+        out_pad_d = out_pad_h = out_pad_w = None
+    else:
+        out_pad_d, out_pad_h, out_pad_w = self.output_padding
+    out_depth = conv_utils.deconv_output_length(depth, kernel_d, padding=self.padding,
+                                                output_padding=out_pad_d, stride=stride_d)
+    out_height = conv_utils.deconv_output_length(height, kernel_h, padding=self.padding,
+                                                 output_padding=out_pad_h, stride=stride_h)
+    out_width = conv_utils.deconv_output_length(width, kernel_w, padding=self.padding,
+                                                output_padding=out_pad_w, stride=stride_w)
+        output_shape = (batch_size, self.filters, out_depth, out_height, out_width)
+        strides = (1, 1, stride_d, stride_h, stride_w)
+    else:
+        output_shape = (batch_size, out_depth, out_height, out_width, self.filters)
+        strides = (1, stride_d, stride_h, stride_w, 1)
+    output_shape_tensor = array_ops.stack(output_shape)
+    outputs = nn.conv3d_transpose(inputs, self.kernel, output_shape_tensor, strides,
+                                 data_format=conv_utils.convert_data_format(self.data_format, ndim=5),
+                                 padding=self.padding.upper())
+        out_shape = self.compute_output_shape(inputs.shape)
+        outputs.set_shape(out_shape)
+        outputs = nn.bias_add(outputs, self.bias, data_format=conv_utils.convert_data_format(self.data_format,
+                                                                                               ndim=4))
+"""
+    Computes the output shape of the layer.
+    Args:
+    Returns:
+        Output tensor shape.
+    """
+    input_shape = tensor_shape.TensorShape(input_shape).as_list()
+    output_shape = list(input_shape)
+        c_axis, d_axis, h_axis, w_axis = (1, 2, 3, 4)
+    else:
+        c_axis, d_axis, h_axis, w_axis = (0, 1, 2, 3)
+    output_shape[c_axis] = self.filters
+        output_shape[d_axis] = out_depth
+        output_shape[h_axis] = out_height
+        output_shape[w_axis] = out_width
+    else:
+        output_shape[d_axis] = out_depth
+        output_shape[h_axis] = out_height
+        output_shape[w_axis] = out_width</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -5631,18 +5456,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Computes 1D cropping of input.
-This layer crops the input along a specified axis.
-#### Arguments
-#### Returns
-#### Raises
-#### Examples
-```python
-# Create a layer that crops the input along axis 1 (time)
-layer = Cropping1D(cropping=(0, 10))
-# Use this layer in your model
-model = Sequential()
-model.add(layer)</t>
+          <t>super(Cropping1D, self).__init__(**kwargs)
+"""
+    Computes the output shape of the layer given an input shape.
+    Args:
+    Returns:
+    Examples:
+        &gt;&gt;&gt; input_shape = [batch_size, height, channels]
+        &gt;&gt;&gt; output_shape = self.compute_output_shape(input_shape)
+    """
+    input_shape = tensor_shape.TensorShape(input_shape).as_list()
+        length = input_shape[1] - self.cropping[0] - self.cropping[1]
+    else:
+        length = None
+"""
+    Calls the Cropping1D layer on the given inputs.
+    Args:
+    Returns:
+    Examples:
+        &gt;&gt;&gt; inputs = tf.ones((batch_size, height, channels))
+        &gt;&gt;&gt; outputs = self.call(inputs)
+    """
+    else:</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -5881,20 +5716,49 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Applies 2D cropping to input data.
-This layer applies spatial cropping to the input data. It can be used to crop a subset of pixels from each spatial dimension.
-Parameters:
-        If an integer is provided, it will be applied symmetrically in both height and width dimensions.
-        If a tuple of two ints is provided, they represent the amount to crop from the top and left (or bottom and right) respectively.
-        If a tuple of two tuples of two ints is provided, they represent the amount to crop from each edge separately.
-        The ordering of the dimensions in the input shape. This is determined by the value of `data_format`.
-        Passed to the parent class.
-Returns:
-Raises:
-Examples:
-    &gt;&gt;&gt; x = Input(shape=(28, 28, 1))
-    &gt;&gt;&gt; cropping_layer = Cropping2D(cropping=((10, 10), (10, 10)))
-    &gt;&gt;&gt; output = cropping_layer(x)</t>
+          <t>**kwargs):
+    """
+    Initializes the Cropping2D Layer.
+    Args:
+                      The first tuple specifies how many rows and columns should be cropped from the top
+                      and left, respectively. The second tuple specifies how many rows and columns should
+                      be cropped from the bottom and right, respectively. Alternatively, an integer can
+                      be passed to crop symmetrically from all four sides.
+                         One of `"channels_first"` or `"channels_last"`.
+    Raises:
+                      or a tuple of 2 ints (symmetric_height_crop, symmetric_width_crop).
+    """
+    super(Cropping2D, self).__init__(**kwargs)
+    elif hasattr(cropping, '__len__'):
+        height_cropping = conv_utils.normalize_tuple(cropping[0], 2, '1st entry of cropping')
+        width_cropping = conv_utils.normalize_tuple(cropping[1], 2, '2nd entry of cropping')
+    else:
+        raise ValueError('`cropping` should be either an int, a tuple of 2 ints '
+                         '(symmetric_height_crop, symmetric_width_crop), or a tuple of 2 tuples '
+"""
+    Computes the output shape of the layer.
+    Args:
+    Returns:
+        - The output shape of the layer.
+    """
+    input_shape = tensor_shape.TensorShape(input_shape).as_list()
+                                         input_shape[2] - self.cropping[0][0] - self.cropping[0][1]
+                                         input_shape[3] - self.cropping[1][0] - self.cropping[1][1]
+    else:
+                                         input_shape[1] - self.cropping[0][0] - self.cropping[0][1]
+                                         input_shape[2] - self.cropping[1][0] - self.cropping[1][1]
+                                         input_shape[3]])
+"""
+    Calls the layer on a given input.
+    Args:
+    Returns:
+        - The output tensor after cropping.
+    """
+        elif self.cropping[0][1] == 0:
+        elif self.cropping[1][1] == 0:
+    else:
+        elif self.cropping[0][1] == 0:
+        elif self.cropping[1][1] == 0:</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -6260,27 +6124,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>"""
-    Args:
-    Returns:
-    Raises:
-    Examples:
-        ```python
-# Define a model with cropping layer
-model = Sequential()
-model.add(Cropping3D(cropping=((1, 1), (1, 1), (1, 1)), data_format='channels_first'))
+          <t>A layer that crops the input tensor.
+This layer uses either symmetric or asymmetric cropping depending on the format of the input.
+Symmetric cropping means that equal amounts are cropped from both sides, while asymmetric cropping
+means that different amounts are cropped from each side.
+#### Input shape:
+#### Output shape:
+#### Args:
+                symmetric_dim2_crop, symmetric_dim3_crop), or a tuple of 3 tuples of 2
+                integers ((left_dim1_crop, right_dim1_crop), (left_dim2_crop, right_dim2_crop),
+                (left_dim3_crop, right_dim3_crop)).
+                    dimensions in the inputs. With this option and the data_format argument in
+                    the layer constructor, you can specify whether you reserve the channels
+                    dimension (at the beginning) or not. It defaults to `channels_last`.
+#### Returns:
+    The output tensor after cropping.
+#### Raises:
+                symmetric_dim2_crop, symmetric_dim3_crop), or a tuple of 3 tuples of 2
+                integers ((left_dim1_crop, right_dim1_crop), (left_dim2_crop, right_dim2_crop),
+                (left_dim3_crop, right_dim3_crop)).
+#### Examples:
+```python
+input_tensor = Input(shape=(28, 28, 1))
+cropping_layer = Cropping3D(cropping=((2, 2), (2, 2), (2, 2)))
+output = cropping_layer(input_tensor)
 ```
-"""
-"""
-    Args:
-    Returns:
-    Raises:
-    Examples:
-        ```python
-# Define a model with cropping layer
-model = Sequential()
-model.add(Cropping3D(cropping=((1, 1), (1, 1), (1, 1)), data_format='channels_first'))
-```</t>
+```python
+input_tensor = Input(shape=(28, 28, 1))
+cropping_layer = Cropping3D(cropping=10)
+output = cropping_layer(input_tensor)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -6706,38 +6578,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>pass
-    @_fit_context(prefer_skip_nested_validation=False)
-        """
-        Fit the model to the training data.
-        Parameters
-        ----------
-            Training set.
-            Weights applied to each sample in `X`.
-        Returns
-        -------
-            Fitted estimator.
-        Notes
-        -----
-        See also
-        --------
-        NearestNeighbors.radius_neighbors
-        """
-        pass
-        """
-        Fit the model and then predict cluster labels for the training data.
-        Parameters
-        ----------
-            Training set.
-            Weights applied to each sample in `X`.
-        Returns
-        -------
-            Cluster labels for each point in the training set.
-        Notes
-        -----
-        This method is not intended to be used directly. It exists for compatibility with scikit-learn 0.16.
-        """
-        pass</t>
+          <t>DBSCAN (Density-Based Spatial Clustering of Applications with Noise) clustering algorithm.
+Parameters
+----------
+    The maximum distance between two samples for them to be considered as in the same neighborhood.
+    The number of samples required to form a dense region.
+    The metric to use when calculating distance between instances. If metric is "precomputed", X must be a precomputed kernel matrix.
+    Additional parameters to the metric function for neighbors calculation.
+    The algorithm to use when building the tree. If "auto", it will automatically choose the most appropriate one based on X.
+    The leaf size passed to BallTree or KDTree.
+    The order in which to apply the distance metric. Not used when metric is 'precomputed'. Ignored for nearest neighbors queries.
+    The number of parallel jobs to run for neighbors search.
+Attributes
+----------
+    Array of indices of core samples among the entire set of samples.
+    An indicator of which cluster each sample belongs to, or -1 if it is not part of a dense region.
+Examples
+--------
+&gt;&gt;&gt; from sklearn.cluster import DBSCAN
+&gt;&gt;&gt; from sklearn.datasets import make_blobs
+&gt;&gt;&gt; X, _ = make_blobs(n_samples=1000, centers=10)
+&gt;&gt;&gt; db = DBSCAN(eps=0.3, min_samples=5).fit(X)
+&gt;&gt;&gt; labels = db.labels_</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -7114,67 +6976,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>kernel_size,
-                 strides=(1, 1),
-                 padding='valid',
-                 depth_multiplier=1,
-                 data_format=None,
-                 dilation_rate=(1, 1),
-                 activation=None,
-                 use_bias=True,
-                 depthwise_initializer='glorot_uniform',
-                 bias_initializer='zeros',
-                 depthwise_regularizer=None,
-                 bias_regularizer=None,
-                 activity_regularizer=None,
-                 depthwise_constraint=None,
-                 bias_constraint=None,
-                 **kwargs):
-        """
-        Initializes the `DepthwiseConv2D` layer.
-        Args:
-                To specify how many spatial filters there should be in each dimension of space,
-                use a single integer (for square filters), or a tuple of two integers. The convention follows
-                the data_format argument. For example, `(kernel_size, kernel_size)` for 'channels_first' and
-                `(kernel_size[0], kernel_size[1])` for 'channels_last'.
-                To specify how far the filter moves in each dimension of space,
-                use a single integer (for square filters), or a tuple of two integers. The convention follows
-                the data_format argument. For example, `(strides, strides)` for 'channels_first' and
-                `(strides[0], strides[1])` for 'channels_last'.
-                Note that when using the 'channels_last' data format to have a 4D tensor with shape
-                `(batch_size, rows, cols, channels)`, where the channels dimension is at index -1.
-                It can also be a string specifying the name of a built-in activation function.
-        """
-        super(DepthwiseConv2D, self).__init__(filters=None,
-                                              kernel_size=kernel_size,
-                                              strides=strides,
-                                              padding=padding,
-                                              data_format=data_format,
-                                              dilation_rate=dilation_rate,
-                                              activation=activation,
-                                              use_bias=use_bias,
-                                              bias_regularizer=bias_regularizer,
-                                              activity_regularizer=activity_regularizer,
-                                              bias_constraint=bias_constraint,
-                                              **kwargs)
-        """
-        Builds the `DepthwiseConv2D` layer.
-        Args:
-        Raises:
-        """
-        """
-        Applies the depthwise convolution operation.
-        Args:
-        Returns:
-            The output tensor after applying the depthwise convolution operation.
-        """
-    @tf_utils.shape_type_conversion
-        """
-        Computes the output shape of the `DepthwiseConv2D` layer.
-        Args:
-        Returns:
-            The shape of the output tensor.
-        """</t>
+          <t>A depthwise separable Conv2D layer.
+    This layer performs a depthwise convolution operation followed by a pointwise convolution.
+    It's similar to a regular Conv2D layer, but the filters are split into two separate sets:
+    one for each input channel spatial maps (depthwise) and another that combines these
+    spatial maps (pointwise).
+    Args:
+            convolution's kernel.
+            strides of the convolution along the height and width.
+            convolution.
+            of dimensions in the inputs. Defaults to "channels_last".
+    Returns:
+        Output tensor.
+    Raises:
+    Examples:
+        ```python
+        inputs = Input(shape=(28, 28, 1))
+        x = DepthwiseConv2D(kernel_size=3,
+                            depth_multiplier=1)(inputs)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -7505,74 +7324,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>"""
-    Initializes the Embedding layer.
+          <t>The Embedding layer embeds a given integer index into a dense vector of fixed size.
     Args:
-            Should be at least 1.
-            Defaults to 'uniform'.
-            Defaults to None.
-            output will be casted to dtype before the regularizer is applied. Defaults to None.
-            Defaults to None.
-            as masks. If True, the indices should be in 1-based instead of 0-based. This might be useful
-            when working with data, where zero is actually a significant character that encodes meaning (e.g.
-            in flags).
+    Returns:
     Raises:
-    """
-                 embeddings_regularizer=None,
-                 activity_regularizer=None,
-                 embeddings_constraint=None,
-                 **kwargs):
-                kwargs['input_shape'] = (input_length,)
-            else:
-                kwargs['input_shape'] = (None,)
-            raise ValueError('Both `input_dim` and `output_dim` should be positive, found input_dim {} and output_dim {}'.format(input_dim, output_dim))
-            kwargs['dtype'] = backend.floatx()
-        kwargs['autocast'] = False
-        super(Embedding, self).__init__(**kwargs)
-    @tf_utils.shape_type_conversion
-        """
-        Builds the Embedding layer.
-        Args:
-                it should be known at graph construction time, hence you cannot pass a
-                `Tensor` as input.
-        """
-                                          initializer=self.embeddings_initializer,
-                                          name='embeddings',
-                                          regularizer=self.embeddings_regularizer,
-                                          constraint=self.embeddings_constraint,
-                                          experimental_autocast=False)
-        """
-        Computes the mask of the Embedding layer.
-        Args:
-        Returns:
-            The computed mask.
-        """
-    @tf_utils.shape_type_conversion
-        """
-        Computes the output shape of the Embedding layer.
-        Args:
-        Returns:
-            The computed output shape.
-        """
-        else:
-                in_lens = list(self.input_length)
-            else:
-                in_lens = [self.input_length]
-                raise ValueError('"input_length" is %s, but received input has shape %s' % (str(self.input_length), str(input_shape)))
-            else:
-                        raise ValueError('"input_length" is %s, but received input has shape %s' % (str(self.input_length), str(input_shape)))
-                    elif s1 is None:
-                        in_lens[i] = s2
-        """
-        Applies the Embedding layer.
-        Args:
-        Returns:
-            The output of the Embedding layer.
-        """
-        dtype = backend.dtype(inputs)
-            inputs = math_ops.cast(inputs, 'int32')
-        out = embedding_ops.embedding_lookup_v2(self.embeddings, inputs)
-            out = math_ops.cast(out, self._dtype_policy.compute_dtype)</t>
+    Examples:
+        &gt;&gt;&gt; embedding_layer = Embedding(input_dim=10, output_dim=64)
+        &gt;&gt;&gt; inputs = tf.keras.Input(shape=(1,), dtype='int32')
+        &gt;&gt;&gt; outputs = embedding_layer(inputs)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -8964,16 +8723,16 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>This is a large codebase for the Flask web framework. I'll try to provide a concise summary of what this code does.
-**Overview**
-The code defines the `Flask` class, which is the core object in the Flask application. The `Flask` instance represents an application and provides various methods for handling requests, responses, and other tasks.
-**Key Features**
-1. **Request Handling**: The `Flask` instance has several methods for handling requests, including:
-2. **Response Generation**: The `Flask` instance provides methods for generating responses, such as:
-**Notable Methods**
-**Context**
-The code uses several context variables, such as `_cv_app` and `_cv_request`, which are used to store the current application context or request context. These variables are updated throughout the request cycle using events like `appcontext_tearing_down` and `request_tearing_down`.
-Overall, this code provides a robust framework for building web applications with Flask. It handles various aspects of request handling, response generation, and context management, making it an essential part of any Flask project.</t>
+          <t>This is a Flask web application class. It's a complex object with many methods and attributes that make it easy to create and manage web applications.
+Here are some of the key features:
+Here's a high-level overview of how you might use this class:
+Here's some example code to get you started:
+```python
+app = Flask(__name__)
+@app.route('/')
+    app.run()
+```
+This will create a simple web application that responds with "Hello, World!" when accessed at the root URL.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -9507,63 +9266,138 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FunctionTransformer is a class that allows users to wrap existing functions with scikit-learn's TransformerMixin.
-Parameters
-----------
-    The function to be wrapped.
-    The inverse function of func.
-    Whether or not to validate the input data.
-    Whether or not to accept sparse matrices as input.
-    Whether or not to check if func and inverse_func are inverses of each other.
-    A function that returns the feature names for the output data, or a string indicating that the feature names should be one-to-one with the input features.
-    Additional keyword arguments to pass to func.
-    Additional keyword arguments to pass to inverse_func.
-Attributes
-----------
-    The wrapped function.
-    The inverse of the wrapped function.
-    Whether or not validation is enabled.
-    Whether or not sparse matrices are accepted as input.
-    Whether or not to check if func and inverse_func are inverses of each other.
-    The feature names for the output data.
-    Additional keyword arguments passed to func.
-    Additional keyword arguments passed to inverse_func.
-Methods
--------
-fit(X, y=None)
-    Fit the transformer to X and y.
-transform(X)
-    Transform X into a new space.
-inverse_transform(X)
-    Inverse transform X back into its original space.
-get_feature_names_out(input_features=None)
-    Get the feature names for the output data.
-set_output(transform=None)
-    Set the output configuration.
-Examples
---------
-&gt;&gt;&gt; from sklearn.pipeline import Pipeline
-&gt;&gt;&gt; from sklearn.preprocessing import StandardScaler
-&gt;&gt;&gt; from sklearn.feature_extraction.text import TfidfVectorizer
-&gt;&gt;&gt; from sklearn.compose import ColumnTransformer
-&gt;&gt;&gt; from sklearn.base import BaseEstimator, TransformerMixin
-&gt;&gt;&gt; class CustomTransformer(BaseEstimator, TransformerMixin):
-...     def fit(self, X, y=None):
-...         return self
-...     def transform(self, X):
-...         return X
-&gt;&gt;&gt; pipeline = Pipeline([
-...     ('preprocessing', ColumnTransformer(
-...         transformers=[
-...             ('text', TfidfVectorizer(), ['text']),
-...             ('num', StandardScaler(), ['num'])
-...         ],
-...         remainder='passthrough'
-...     )),
-...     ('custom', CustomTransformer())
-... ])
-&gt;&gt;&gt; y = pd.Series([0, 1])
-&gt;&gt;&gt; pipeline.fit(X, y).transform(X)</t>
+          <t>StrOptions({'one-to-one'}), None],
+                 check_inverse=True, feature_names_out=None, kw_args=None, inv_kw_args=None):
+        """
+        Initialize the FunctionTransformer.
+        Parameters
+        ----------
+            The function to be applied. If None, the identity function is used.
+            The inverse function to be applied during inverse_transform.
+            Whether to check that the input data are valid.
+            Whether to accept sparse matrices as input.
+            Whether to check if the provided functions are strictly inverse of each other.
+            The output feature names. If 'one-to-one', the input feature names will be used.
+            and return an array-like of output feature names.
+            Additional keyword arguments to pass to the function during transform.
+            Additional keyword arguments to pass to the inverse function during inverse_transform.
+        Returns
+        -------
+        None
+        """
+        """
+        Check that the input data are valid.
+        Parameters
+        ----------
+            The input data.
+            Whether to reset the internal state of the transformer.
+        Returns
+        -------
+            The input data with any necessary modifications.
+        """
+        elif reset:
+        """
+        Check if the provided functions are strictly inverse of each other.
+        Parameters
+        ----------
+            The input data.
+        Raises
+        ------
+        ValueError
+            If the provided functions are not strictly inverse of each other.
+        """
+        idx_selected = slice(None, None, max(1, X.shape[0] // 100))
+        X_round_trip = self.inverse_transform(self.transform(X[idx_selected]))
+            dtypes = [X.dtype]
+        elif hasattr(X, 'dtypes'):
+            dtypes = X.dtypes
+            raise ValueError("'check_inverse' is only supported when all the elements in `X` is numerical.")
+            warnings.warn("The provided functions are not strictly inverse of each other. If you are sure you want to proceed regardless, set 'check_inverse=False'.", UserWarning)
+    @_fit_context(prefer_skip_nested_validation=True)
+        """
+        Fit the transformer.
+        Parameters
+        ----------
+            The input data.
+            The target variable.
+        Returns
+        -------
+            The fitted transformer.
+        """
+        X = self._check_input(X, reset=True)
+        """
+        Apply the function to each feature of the input data.
+        Parameters
+        ----------
+            The input data.
+        Returns
+        -------
+            The transformed data.
+        """
+        X = self._check_input(X, reset=False)
+        out = self._transform(X, func=self.func, kw_args=self.kw_args)
+        output_config = _get_output_config('transform', self)['dense']
+            feature_names_out = self.get_feature_names_out()
+                feature_names_in = getattr(X, 'feature_names_in_', _get_feature_names(X))
+                same_feature_names_in_out = feature_names_in is not None and list(feature_names_in) == list(out.columns)
+                not_all_str_columns = not all((isinstance(col, str) for col in out.columns))
+                    adapter = _get_adapter_from_container(out)
+                    out = adapter.create_container(X_output=out, X_original=out, columns=feature_names_out, inplace=False)
+                else:
+            warn_msg = "When `set_output` is configured to be '{0}', `func` should return a {0} DataFrame to follow the `set_output` API  or `feature_names_out` should be defined."
+                warnings.warn(warn_msg.format('pandas'))
+            elif output_config == 'polars' and (not _is_polars_df(out)):
+                warnings.warn(warn_msg.format('polars'))
+        """
+        Apply the inverse function to each feature of the input data.
+        Parameters
+        ----------
+            The input data.
+        Returns
+        -------
+            The transformed data.
+        """
+            X = check_array(X, accept_sparse=self.accept_sparse)
+        """
+        Get the output feature names.
+        Parameters
+        ----------
+            The input feature names.
+        Returns
+        -------
+            The output feature names.
+        """
+            input_features = _check_feature_names_in(self, input_features)
+            names_out = input_features
+        elif callable(self.feature_names_out):
+            names_out = self.feature_names_out(self, input_features)
+        else:
+        """
+        Apply the given function to each feature of the input data.
+        Parameters
+        ----------
+            The input data.
+            The function to be applied. If None, the identity function is used.
+            Additional keyword arguments to pass to the function during transform.
+        Returns
+        -------
+            The transformed data.
+        """
+            func = _identity
+        """
+        Check if the transformer is fitted.
+        Returns
+        -------
+        bool
+            True if the transformer is fitted.
+        """
+        """
+        Get additional metadata about the transformer.
+        Returns
+        -------
+        dict
+            Additional metadata about the transformer.
+        """</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -10141,54 +9975,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A Gaussian Mixture model.
-Parameters
-----------
-    The number of mixture components.
-    Type of covariance parameters to use. This can be one of the following:
-      i.e., they are ellipses with different sizes and orientations.
-      them.
-      i.e., spherical shapes.
-    Tolerance for convergence.
-    If not None, a number added to the diagonal of each component’s covariance matrix
-    to ensure it is positive semi-definite.
-    Maximum number of iterations.
-    Number of initializations to perform.
-    Method to use for initialization.
-    Initial weights for the components. If not None, must be 1-D and have length equal
-    to n_components.
-    Initial means for the components. If not None, must be 2-D with shape (n_features,)
-    and have length equal to n_components.
-    Initial precisions for the components. If not None, must be 2-D with shape (n_features,
-    n_features) and have length equal to n_components.
-    If int, random_state is the seed used by the random number generator;
-    When set to True, reuse what is computed in the previous fits,
-    i.e., the means and the precisions of the components are not recomputed.
-    Verbosity mode.
-    Gap between internal logging message, higher is quieter.
-Attributes
-----------
-    The weights of each Gaussian mixture component.
-    The means of the Gaussian mixture components.
-    The covariance matrices of the Gaussian mixture components.
-    The Cholesky factor of the precision matrix of each component.
-Methods
---------
-fit(X[, y])
-    Fit the model to data.
-score(X[, y])
-    Compute the per-sample average log-likelihood of the given data with respect to the
-    model parameters.
-bic(X)
-    Bayes Information Criterion.
-aic(X)
-    Akaike Information Criterion.
-Examples
---------
-&gt;&gt;&gt; from sklearn.mixture import GaussianMixture
-&gt;&gt;&gt; X = np.array([[1, 2], [3, 4]])
-&gt;&gt;&gt; gmm = GaussianMixture(n_components=2)
-&gt;&gt;&gt; gmm.fit(X)</t>
+          <t>A mixture of Gaussian components.
+    Parameters
+    ----------
+        The number of components in the mixture model.
+        The type of covariance matrix to use:
+        The tolerance for convergence.
+        The regularization amount for the covariance matrix.
+        The maximum number of iterations.
+        The number of initializations to perform.
+        The method used to initialize the parameters:
+        The initial weights of the components. If None, they will be initialized randomly.
+        The initial means of the components. If None, they will be initialized randomly.
+        The initial precisions of the components. If None, they will be initialized randomly.
+        The seed used for random number generation.
+        Whether to reuse the existing model parameters as the initial values for the next fit.
+        The verbosity level of the solver.
+        The interval between printing the progress.
+    Attributes
+    ----------
+        The weights of the components.
+        The means of the components.
+        The covariance matrices of the components.
+        The Cholesky decompositions of the precision matrices.
+    Methods
+    -------
+    _check_parameters(X)
+        Check if the parameters are valid for the given data.
+    _initialize_parameters(X, random_state)
+        Initialize the parameters using the provided data and seed.
+    _initialize(X, resp)
+        Initialize the parameters using the provided data and responsibility matrix.
+    _m_step(X, log_resp)
+        Perform the M-step of the EM algorithm.
+    _estimate_log_prob(X)
+        Estimate the log probability of each data point in X.
+    _estimate_log_weights()
+        Estimate the log weights of the components.
+    _compute_lower_bound(_, log_prob_norm)
+        Compute the lower bound of the model.
+    _get_parameters()
+        Get the current parameters of the model.
+    _set_parameters(params)
+        Set the parameters of the model.
+    Notes
+    -----
+    This class implements a Gaussian mixture model using the EM algorithm. It supports various types of covariance matrices and initialization methods.
+    Examples
+    --------
+    &gt;&gt;&gt; from sklearn.mixture import GaussianMixture
+    &gt;&gt;&gt; gm = GaussianMixture(n_components=5)
+    &gt;&gt;&gt; gm.fit(X)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -10344,25 +10181,16 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>"""
-        Initializes the layer with the given data format and optional keyword arguments.
+          <t>...
+        """
+        Call the layer.
         Args:
-        """
-        super(GlobalAveragePooling1D, self).__init__(data_format=data_format, **kwargs)
-        """
-        Applies global average pooling operation.
-        Args:
+                it will be used for masking the input data.
         Returns:
-                Output is a 2D tensor with shape (batch_size, features).
-        Raises:
-        """
-        steps_axis = 1 if self.data_format == 'channels_last' else 2
-            # Apply mask to input data
-            mask = math_ops.cast(mask, inputs[0].dtype)
-            mask = array_ops.expand_dims(mask, 2 if self.data_format == 'channels_last' else 1)
-            inputs *= mask
-        else:
-            # No masking applied</t>
+            A tensor with same shape as input except for the feature axis,
+            which is reduced to 1 (i.e., output of shape `(batch_size, ...)`).
+        """
+        ...</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -10485,20 +10313,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Call the GlobalAveragePooling2D layer on inputs.
-This function applies global average pooling to the input tensor. It first checks
-the data format of the layer and then applies the mean operation along the 
-appropriate axes based on that format.
-Args:
-Returns:
-        keepdims is True, the returned tensor has the same number of dimensions
-        as the input tensor; otherwise, one dimension (the pooling axis) is
-        removed from the output tensor.
-Raises:
-Examples:
-    &gt;&gt;&gt; inputs = tf.constant([[[1., 2.], [3., 4.]]])
-    &gt;&gt;&gt; layer = GlobalAveragePooling2D()
-    &gt;&gt;&gt; result = layer.call(inputs)</t>
+          <t>Applies global average pooling to the input tensor.
+    Args:
+            If `data_format` is 'channels_last', this should have shape `(batch_size, height, width, channels)`.
+            If `data_format` is 'channels_first', this should have shape `(batch_size, channels, height, width)`.
+    Returns:
+            The output has shape `(batch_size, num_filters)`.
+            If `keepdims` is True, the returned tensor has an additional dimension of length 1, which can be used for broadcasting.
+    Raises:
+    Examples:
+        &gt;&gt;&gt; pooling = GlobalAveragePooling2D(data_format='channels_last')
+        &gt;&gt;&gt; inputs = np.random.rand(10, 32, 32, 3)
+        &gt;&gt;&gt; output = pooling.call(inputs)
+        &gt;&gt;&gt; print(output.shape)  # (10, 3)
+        &gt;&gt;&gt; pooling = GlobalAveragePooling2D(data_format='channels_first')
+        &gt;&gt;&gt; inputs = np.random.rand(10, 3, 32, 32)
+        &gt;&gt;&gt; output = pooling.call(inputs)
+        &gt;&gt;&gt; print(output.shape)  # (10, 3)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -10613,23 +10444,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Performs global average pooling on the input tensor.
+          <t>Applies global average pooling to the input tensor.
+    This method is a modified version of the GlobalAveragePooling3D class.
+    It pools over either the spatial dimensions (channels_last format)
+    or the batch and spatial dimensions (channels_first format).
     Args:
-            It should have shape [batch_size, spatial_dim1,
-                spatial_dim2, ...] where 'spatial' denotes a
-                spatial dimension of the input data.
-            "channels_last" or "channels_first". Defaults to None.
     Returns:
-            1, ...] where '...' denotes any remaining spatial dimensions
-            that were present in the input.
+        A tensor with the same number of channels as inputs, but reduced by
+        a factor of the number of pooling regions over each spatial dimension.
+        Keepdims is used to preserve the original shape when keepdims=True.
     Raises:
-            "channels_first".
     Examples:
-        &gt;&gt;&gt; from tensorflow.keras import backend as tfk
-        &gt;&gt;&gt; # Create a sample tensor with shape (1, 10, 10)
-        &gt;&gt;&gt; inputs = tf.random.normal((1, 10, 10))
-        &gt;&gt;&gt; # Perform global average pooling on the input tensor
-        &gt;&gt;&gt; pooled_output = GlobalAveragePooling3D()(inputs)</t>
+        &gt;&gt;&gt; global_pool = GlobalAveragePooling3D()
+        &gt;&gt;&gt; inputs = np.random.rand(1, 10, 10, 10)
+        &gt;&gt;&gt; outputs = global_pool.call(inputs)
+    Note:
+        This method uses the backend's mean function to perform the actual pooling.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -10764,21 +10594,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Applies the global max pooling operation over an input tensor.
-    This method is a variant of GlobalPooling1D that uses the `backend.max` function to compute
-    the maximum value along the specified axis.
+          <t>Applies Global Max Pooling along the specified axis.
     Args:
+            It should have at least 2 axes. If `data_format` is 'channels_last',
+            it will be treated as having shape [batch, steps, ...].
+            Otherwise, it will be treated as having shape [..., batch, steps].
     Returns:
-            If keepdims is True, the returned tensor will have the same number of dimensions
-            as the original tensor, with the specified axis having a size of 1.
     Raises:
     Examples:
-        &gt;&gt;&gt; from tensorflow.keras import backend as tf
-        # Create a sample input tensor.
-        inputs = tf.constant([[[1, 2], [3, 4]], [[5, 6], [7, 8]]])
-        # Apply global max pooling to the input tensor.
-        output = self.call(inputs)
-        # The shape of the output tensor will be (2, 1, ...).</t>
+        &gt;&gt;&gt; inputs = tf.constant([[[1, 2], [3, 4]], [[5, 6], [7, 8]]])
+        &gt;&gt;&gt; layer = GlobalMaxPooling1D()
+        &gt;&gt;&gt; output = layer.call(inputs)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -10903,19 +10729,14 @@
         <is>
           <t>Applies global max pooling to the input tensor.
     Args:
-            [batch_size, spatial_dim1, spatial_dim2, ...], where spatial dimensions
-            are either 3 or more depending on the data_format.
     Returns:
     Raises:
     Examples:
-        &gt;&gt;&gt; # Example usage with channels_last data format
-        &gt;&gt;&gt; x = tf.random.normal([1, 10, 10])
-        &gt;&gt;&gt; y = self.call(x)
-        &gt;&gt;&gt; print(y.shape)  # (1, 10)
-        &gt;&gt;&gt; # Example usage with channels_first data format
-        &gt;&gt;&gt; x = tf.random.normal([1, 10, 10, 3])
-        &gt;&gt;&gt; y = self.call(x)
-        &gt;&gt;&gt; print(y.shape)  # (1, 10, 3)</t>
+        &gt;&gt;&gt; from tensorflow.keras.layers import GlobalMaxPooling2D
+        &gt;&gt;&gt; layer = GlobalMaxPooling2D(data_format='channels_last')
+        &gt;&gt;&gt; inputs = np.random.rand(1, 10, 10, 3)
+        &gt;&gt;&gt; outputs = layer.call(inputs)
+        &gt;&gt;&gt; print(outputs.shape)  # (1, 10, 10)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -11030,22 +10851,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Call the global max pooling operation on an input.
-This method applies the global max pooling operation along the specified axes.
-The data_format parameter determines whether to use channels last or channels first format.
-Args:
-Returns:
-Raises:
-Examples:
-    &gt;&gt;&gt; from tensorflow import backend as tf
-    &gt;&gt;&gt; inputs = tf.constant([[[[1, 2], [3, 4]], [[5, 6], [7, 8]]]])
-    &gt;&gt;&gt; global_max_pooling = GlobalMaxPooling3D()
-    &gt;&gt;&gt; output = global_max_pooling.call(inputs)
-    &gt;&gt;&gt; print(output)
-    [[[9]
-     [10]]]
-Note:
-    The axis to reduce along is determined by the data_format. If 'channels_last', it is [1, 2, 3]. Otherwise, it is [2, 3, 4].</t>
+          <t>Applies global max pooling operation to the input tensor.
+    Args:
+            spatial_dim_2, spatial_dim_3, channels).
+            For 'channels_last' data format, this is (batch_size, spatial_dim_1,
+            spatial_dim_2, spatial_dim_3, channels). For 'channels_first' data format,
+            this is (batch_size, channels, spatial_dim_1, spatial_dim_2,
+            spatial_dim_3).
+    Returns:
+            spatial_dim_2, spatial_dim_3) or (batch_size, channels, spatial_dim_1,
+            spatial_dim_2, spatial_dim_3) depending on the input data format.
+    Raises:
+    Examples:
+        &gt;&gt;&gt; from tensorflow.keras import backend as K
+        &gt;&gt;&gt; inputs = K.constant([[[[1, 2], [3, 4]], [[5, 6], [7, 8]]]])
+        &gt;&gt;&gt; layer = GlobalMaxPooling3D(data_format='channels_last')
+        &gt;&gt;&gt; output = layer.call(inputs)
+        &gt;&gt;&gt; print(output.shape)  # (1, 2, 2)
+    Note:
+        This method only works with 'channels_last' or 'channels_first' data formats.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -11146,23 +10970,20 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>Global pooling layer for 1D data.
-This layer pools the output of a temporal sequence after applying an activation function,
-e.g. global max or average pooling.
-#### Arguments
-    The ordering of dimensions in the input shape.
-    when using global pooling.
-#### Returns
-*   An array with same number of features as output of `pool_size`-sized window.
-#### Raises
-#### Examples
-*   Here's an example of how to use the global pooling layer:
-    ```python
-# Create a sample input
-input_data = Input(shape=(10, 20))
-# Apply global max pooling along axis=1 (time)
-x = GlobalPooling1D()(input_data)
-# Print the shape of x
-print(x.shape)</t>
+    This layer pools over the spatial dimensions (axis=1) of 3D data.
+    It provides a global pool operation, which reduces the input data to
+    a single value per sample. The axis along which to pool is determined by
+    `data_format` and `keepdims`.
+    Args:
+            Defaults to 'channels_last'.
+    Returns:
+        None
+    Raises:
+    Examples:
+        ```python
+        x = tf.keras.Input(shape=(10,))
+        pool = GlobalPooling1D()(x)
+        model = tf.keras.Model(inputs=x, outputs=pool)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -11264,13 +11085,18 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>"""
-    Computes the output shape of the layer.
-    Args:
-    Returns:
-        A `TensorShape` instance representing the output shape.
-    Raises:
-    """</t>
+          <t>Global average pooling layer.
+This layer creates a global average pooling layer from its (input) input.
+It works with 2D inputs (e.g. spatial data).
+#### Arguments
+	+ If `True`, the output will have shape `(1, 1, input_shape[3])` if `data_format='channels_last'`.
+	+ If `False`, the output will have shape `(input_shape[0], input_shape[3])` if `data_format='channels_last'`.
+#### Returns
+#### Raises
+#### Examples
+```python
+# Assuming x is a 4D tensor with shape (batch_size, rows, cols, channels)
+x = GlobalPooling2D()(x)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -11370,33 +11196,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Global pooling layer for 3D data.
-This layer pools (global) the spatial dimensions of each input data.
-It can be used in conjunction with a global average or max pooling 
-operation on top of convolutional layers.
-#### Arguments
-    The ordering of the dimensions in the inputs. 
-    Defaults to None which means that the `data_format` will be inferred from the 
-    inputs' shape.
-#### Input shape
-A 5D tensor with shape `(batch_size, rows, cols, channels, depth)`.
-The value range for each input dimension is determined by the user at layer creation time.
-#### Output shape
-A 2D or 1D tensor depending on `keepdims` and data_format.
-- With `data_format='channels_last'` and `keepdims=False`, output will have shape `(batch_size, depth)`.
-- With `data_format='channels_last'` and `keepdims=True`, output will have shape `(batch_size, 1, 1, 1, depth)`.
-- With `data_format='channels_first'` and `keepdims=False`, output will have shape `(batch_size, channels, depth)`.
-- With `data_format='channels_first'` and `keepdims=True`, output will have shape `(batch_size, channels, 1, 1, 1)`.
-#### Returns
-A tensor with the pooled spatial dimensions.
-#### Raises
-#### Examples
-```python
-# Assuming conv2d layer as example
-x = Input((28, 28, 1))
-conv = Conv2D(32, (3, 3), activation='relu')(x)
-pool = GlobalPooling3D()(conv)
-model = Model(inputs=x, outputs=pool)</t>
+          <t>"""
+    Initializes a GlobalPooling3D instance.
+    Args:
+    Raises:
+    Returns:
+        None
+    """
+        super(GlobalPooling3D, self).__init__(**kwargs)
+        """
+        Computes the output shape of this layer.
+        Args:
+        Returns:
+        """
+        input_shape = tensor_shape.TensorShape(input_shape).as_list()
+            else:
+        elif self.keepdims:
+        else:
+        """
+        This method must be implemented by subclasses.
+        Raises:
+        """
+        raise NotImplementedError</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -11720,48 +11541,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>window_type: str = 'rolling'):
-        """
-        Initialize the GroupTimeSeriesSplit object.
-        Parameters
-        ----------
-            Proportion of data in each group that will be used for testing.
-            Number of samples to include in training split. If None, the train size is calculated based on the number of splits.
-            Number of splits to create. If None, the number of splits is calculated based on the train size.
-            Gap between each split.
-            Shift applied after each split.
-            Type of window to use. Can be either 'rolling' or 'expanding'.
-        Raises
-        ------
-        ValueError
-            If neither train size nor number of splits is specified.
-        Attributes
-        ----------
-            Proportion of data in each group that will be used for testing.
-            Number of samples to include in training split. If None, the train size is calculated based on the number of splits.
-            Number of splits to create. If None, the number of splits is calculated based on the train size.
-            Gap between each split.
-            Shift applied after each split.
-            Type of window used.
+          <t>"""
+        Initializes the GroupTimeSeriesSplit object.
+        Args:
+        Raises:
         """
             raise ValueError('Either train_size or n_splits should be defined')
             raise ValueError('Window type can be either "rolling" or "expanding"')
             raise ValueError('Train size can be specified only with rolling window')
-              groups: np.ndarray or None = None):
-        """
-        Split the data into training and testing sets.
-        Parameters
-        ----------
-            The training set.
-            The target values. If None, no splitting is done on y.
-            Group labels for the samples.
-        Yields
-        ------
-            Indices to split the data into training and testing sets.
-        Raises
-        ------
-        ValueError
-            If the groups are not specified.
+        """
+        Splits the data into training and testing sets.
+        Args:
+        Yields:
+        Raises:
         """
         test_size = self.test_size
         gap = self.gap_size
@@ -11789,17 +11581,10 @@
             train_end_idx = train_end_idx + shift_size
             test_start_idx = test_start_idx + shift_size
             test_end_idx = test_end_idx + shift_size
-                     groups: np.ndarray or None = None):
-        """
-        Get the number of splits.
-        Parameters
-        ----------
-            The training set.
-            The target values. If None, no splitting is done on y.
-            Group labels for the samples.
-        Returns
-        -------
-            Number of splits.
+        """
+        Returns the number of splits.
+        Args:
+        Returns:
         """</t>
         </is>
       </c>
@@ -12026,33 +11811,23 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>"""
-        Initialize the Kmeans model.
+        Initializes the K-means model with given parameters.
         Args:
         Returns:
             None
-        """
-        _BaseModel.__init__(self)
-        _Cluster.__init__(self)
-        _IterativeModel.__init__(self)
-        """
-        Fit the model to the data.
+        Raises:
+        """
+        """
+        Fits the model to the data X. If init_params is True, initializes centroids randomly.
         Args:
         Returns:
         Raises:
         """
-        n_samples = X.shape[0]
-            rgen = np.random.RandomState(self.random_seed)
-            idx = rgen.choice(n_samples, self.k, replace=False)
-            new_centroids = np.array([np.mean(X[self.clusters_[k]], axis=0) for k in sorted(self.clusters_.keys())])
-                break
-            else:
-        """
-        Get the cluster index for each sample.
+        """
+        Returns the index of the closest centroid for each sample in X.
         Args:
         Yields:
-        """
-            dist = np.sqrt(np.sum(np.square(sample - self.centroids_), axis=1))
-            yield np.argmin(dist)</t>
+        """</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -12418,33 +12193,69 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Class to convert labels in a multilabel problem into binary format.
-This transformer can handle both multiclass and multilabel target data. For
-multiclass data, it will binarize the labels using thresholding. For multilabel
-data, it will use label binarization with the specified positive and negative
-labels.
-Parameters
-----------
-    The value used to represent a negative class.
-    The value used to represent a positive class.
-    Whether to output in sparse format. If True and pos_label is not 0 or
-    neg_label is not zero, only the positive classes are kept.
-Attributes
-----------
-    The negative label used for binarization.
-    The positive label used for binarization.
-    Whether to output in sparse format.
-    Type of target data (e.g., multiclass, multilabel).
-    Array of unique labels found in the training data.
-    Whether input is sparse.
-See also
---------
-Examples
---------
-&gt;&gt;&gt; from sklearn.preprocessing import LabelBinarizer
-&gt;&gt;&gt; lb = LabelBinarizer()
-&gt;&gt;&gt; y = np.array([1, 2, 3])
-&gt;&gt;&gt; X = lb.fit_transform(y)</t>
+          <t>int = 0, pos_label: int = 1, sparse_output: bool = False) -&gt; None:
+    """
+    Initialize the Label Binarizer.
+    Parameters
+    ----------
+        The label used for negative class.
+        The label used for positive class.
+        Whether to output in sparse format.
+    """
+array_like) -&gt; LabelBinarizer:
+    """
+    Fit the Label Binarizer.
+    Parameters
+    ----------
+        Target data to be binarized.
+    Returns
+    -------
+    self
+    Raises
+    ------
+    ValueError
+        If neg_label is not strictly less than pos_label or if sparse_output is used with non-zero pos_label and zero neg_label.
+        If multioutput target data is provided.
+        If y has 0 samples.
+    """
+array_like) -&gt; array_like:
+    """
+    Fit the Label Binarizer and transform the input.
+    Parameters
+    ----------
+        Target data to be binarized.
+    Returns
+    -------
+    array-like
+        The transformed target data.
+    """
+array_like) -&gt; array_like:
+    """
+    Transform the input using the fitted Label Binarizer.
+    Parameters
+    ----------
+        Target data to be binarized.
+    Returns
+    -------
+    array-like
+        The transformed target data.
+    Raises
+    ------
+    ValueError
+        If the object was not fitted with multilabel input.
+    """
+array_like, threshold: float = None) -&gt; array_like:
+    """
+    Inverse transform the binarized output back to original labels.
+    Parameters
+    ----------
+        Binarized target data.
+        Threshold value for multiclass inverse transformation. Defaults to the average of pos_label and neg_label.
+    Returns
+    -------
+    array-like
+        The transformed target data.
+    """</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -12673,44 +12484,46 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>"""
-        Fits the label encoder to the input labels.
+        Fit the LabelEncoder to the input data.
         Parameters
         ----------
-            The input labels.
+            Input data. Can be string, integer, floating point array or categorical type.
         Returns
         -------
             Fitted estimator.
         """
         y = column_or_1d(y, warn=True)
         """
-        Fits the label encoder to the input labels and returns the encoded values.
+        Fit the LabelEncoder to the input data and returns a transformed version of it.
         Parameters
         ----------
-            The input labels.
+            Input data. Can be string, integer, floating point array or categorical type.
         Returns
         -------
-            The encoded labels.
+            Transformed input data.
         """
         y = column_or_1d(y, warn=True)
         """
-        Transforms the input labels using the fitted label encoder.
+        Transform the input data by encoding labels.
         Parameters
         ----------
-            The input labels.
+            Input data. Can be string, integer, floating point array or categorical type.
         Returns
         -------
-            The encoded labels.
+            Transformed input data.
+        Raises
+        ------
         """
         check_is_fitted(self)
         y = column_or_1d(y, dtype=self.classes_.dtype, warn=True)
         """
-        Inverse transforms the encoded labels back to their original form.
+        Transform the encoded labels back to original values.
         Parameters
         ----------
-            The encoded labels.
+            Encoded input data.
         Returns
         -------
-            The original labels.
+            Transformed input data.
         Raises
         ------
         """
@@ -13028,32 +12841,32 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>...
+          <t>super().__init__()
+            raise ValueError('Minibatches should be set to `None` if `method` != `sgd`. Got method=`%s`.' % method)
+        supported_methods = ('sgd', 'direct', 'svd', 'qr')
+            raise ValueError('`method` must be in %s. Got %s.' % (supported_methods, method))
         """
         Fit the model to the given data.
         Args:
         Returns:
-        Raises:
-        """
-        ...
-        """
-        Compute the normal equation solution for linear regression.
+        """
+        # ... (rest of the method implementation)
+        """
+        Compute the normal equation for linear regression.
         Args:
         Returns:
         """
-        ...
-        """
-        Compute the net input of the model for a given data point.
+        # ... (rest of the method implementation)
+        """
+        Compute the net input for a given feature matrix.
         Args:
         Returns:
         """
-        ...
-        """
-        Make predictions using the fitted model.
+        """
+        Predict the target values for a given feature matrix.
         Args:
         Returns:
-        """
-        ...</t>
+        """</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -13338,16 +13151,56 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Logistic Regression Model.
-This class implements a logistic regression model for binary classification problems.
-It uses the stochastic gradient descent algorithm to optimize the weights and bias of the model.
-Args:
-Returns:
-Raises:
-Examples:
-    &gt;&gt;&gt; model = LogisticRegression(eta=0.1, epochs=100)
-    &gt;&gt;&gt; model.fit(X_train, y_train)
-    &gt;&gt;&gt; predictions = model.predict(X_test)</t>
+          <t>print_progress: int = 0):
+        """
+        Initialize the logistic regression model.
+        Args:
+        """
+        _BaseModel.__init__(self)
+        _IterativeModel.__init__(self)
+        _Classifier.__init__(self)
+        """
+        Args:
+        Returns:
+        """
+        z = self._net_input(X)
+        a = self._sigmoid_activation(z)
+        """
+        Args:
+        Returns:
+        """
+        grad_loss_wrt_out = y_true - y_probas
+        grad_loss_wrt_w = -X.T @ grad_loss_wrt_out.reshape(-1, 1)
+        grad_loss_wrt_b = -np.sum(grad_loss_wrt_out)
+        """
+        Fit the model to the training data.
+        Args:
+        Returns:
+        Raises:
+        """
+        rgen = np.random.RandomState(self.random_seed)
+                y_val = self._forward(X[idx])
+                grad_loss_wrt_w, grad_loss_wrt_b = self._backward(X[idx], y_true=y[idx], y_probas=y_val)
+                l2_reg = self.l2_lambda * self.w_
+            cost = self._logit_cost(y, self._forward(X))
+        """
+        Predict class labels based on model outputs.
+        Args:
+        Returns:
+        """
+        """
+        Compute class probabilities based on model outputs.
+        Args:
+        Returns:
+        """
+        """
+        Compute log-likelihood loss function.
+        Args:
+        Returns:
+        """
+        logit = -y.dot(np.log(y_val)) - (1 - y).dot(np.log(1 - y_val))
+            l2 = self.l2_lambda / 2.0 * np.sum(self.w_ ** 2)
+            logit += l2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -13535,47 +13388,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>"""
-    Initializes a new instance of the Loss class.
-    Args:
-            it will default to the floatx() of the backend.
-    Attributes:
-    """
-"""
-    Computes the loss value.
-    Args:
-    Returns:
-    Raises:
-            'sum', 'mean'.
-    """
-    in_mask = backend.get_keras_mask(y_pred)
-        losses = self.call(y_true, y_pred)
-        out_mask = backend.get_keras_mask(losses)
-            mask = in_mask &amp; out_mask
-        elif in_mask is not None:
-            mask = in_mask
-        elif out_mask is not None:
-            mask = out_mask
-        else:
-            mask = None
-"""
-    Computes the loss value.
-    Args:
-    Returns:
-    Raises:
-    """
-    raise NotImplementedError
-"""
-    Gets the configuration of the Loss object.
-    Returns:
-    """
-@classmethod
-"""
-    Creates a new instance of the Loss class from a configuration dictionary.
-    Args:
-    Returns:
-        A new instance of the Loss class.
-    """</t>
+          <t>Base class for loss functions.
+This class provides a basic implementation of loss functions in Keras.
+It can be used as a base class to create custom loss functions.
+Args:
+        it will be automatically generated based on the class name.
+        values. Can be 'sum_over_batch_size' or a string specifying
+        a custom reduction type. Defaults to 'sum_over_batch_size'.
+        If not specified, it will default to the floatx() data type.
+Returns:
+    The result of the loss computation.
+Raises:
+        a subclass.
+Examples:
+    To create a custom loss function, you can subclass this class and
+    implement the `call` method. For example::
+                # Your implementation here
+        loss = CustomLoss()
+        result = loss(y_true, y_pred)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -13746,13 +13576,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Initializes a 1D max pooling layer.
-    Args:
-    Raises:
-    Returns:
-        None
-    Examples:
-        &gt;&gt;&gt; max_pooling = MaxPooling1D(pool_size=3)
-        &gt;&gt;&gt; max_pooling</t>
+Args:
+Raises:
+Examples:
+    &gt;&gt;&gt; pooling_layer = MaxPooling1D(pool_size=3)
+    &gt;&gt;&gt; pooling_layer = MaxPooling1D(strides=[2, 1])</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -14004,16 +13832,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Initializes a MaxPooling2D instance.
+          <t>Initializes a MaxPooling2D object.
     Args:
-            If None, it will be set to `pool_size`. Defaults to None.
-            Defaults to None, which means it will be determined by the first dimension of the input.
+            Defaults to 2x2.
+            If None, defaults to the same as `pool_size`.
+            None, which means it's determined by the input shape.
     Raises:
-    Returns:
-        None
-    Examples:
-        &gt;&gt;&gt; max_pooling = MaxPooling2D(pool_size=(3, 3), strides=2)
-"""</t>
+    Returns:</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -14149,17 +13974,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Initialize a MaxPooling3D layer.
-Args:
-        Specifies how many steps to take in each dimension.
-        Defaults to None, which means it will be set to `pool_size`.
-        of the input shape. Defaults to None.
-Returns:
-    None
-Raises:
-Examples:
-    &gt;&gt;&gt; from tensorflow.keras.layers import MaxPooling3D
-    &gt;&gt;&gt; layer = MaxPooling3D(pool_size=(2, 2, 2), strides=1)</t>
+          <t>Parameters
+----------
+    Size of the pooling window.
+    Stride size in the format (x, y, z).
+    Padding mode. 'valid' means no padding, 'same' means padding with zeros so that output shape is equal to input shape.
+    Format of input data. 'channels_last' is the default format for 3D convolution layers.
+Returns
+-------
+None
+Raises
+------
+ValueError
+    If invalid pool_size, strides or padding arguments are provided.
+Examples
+--------
+&gt;&gt;&gt; max_pooling_3d = MaxPooling3D(pool_size=(2, 2, 2))
+&gt;&gt;&gt; # Use max_pooling_3d as a regular pooling layer in your neural network model.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -14587,40 +14418,30 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>"""
-    Args:
-            `backend.floatx()`.
-    Attributes:
-    Raises:
-    """
-        """
-        Initializes the metric with the given data type and name.
+        Initializes a custom metric.
         Args:
-                `backend.floatx()`.
-        """
-        """
-        Resets the metric's state by setting all variables to zero.
-        This method is called at the beginning of each training epoch.
+        """
+        """
+        Resets the state of the metric.
+        This method resets all variables to zero.
         """
             v.assign(ops.zeros(v.shape, dtype=v.dtype))
         """
-        Updates the metric's state based on the current batch.
-        This method should be implemented by subclasses to provide the actual
-        computation logic for their metric.
+        Updates the state of the metric.
+        This method should be implemented by subclasses to update the metric's internal state based on the provided arguments.
+        It is called during training and evaluation.
         Args:
         Raises:
         """
         raise NotImplementedError
         """
-        Updates the metric's state in a stateless scope.
-        This method is used when the metric needs to be updated outside of a
-        training loop. It takes a list of metric variables as input and returns
-        an updated list of variable values.
+        Updates the state of the metric in a stateless manner.
+        This method updates the metric's internal state based on the provided `metric_variables` and additional arguments.
+        It is used during evaluation when the model is not training.
         Args:
-                variables.
         Returns:
-            A list of updated variable values.
+            A list of updated metric variables.
         Raises:
-                variables.
         """
         mapping = list(zip(self.variables, metric_variables))
         metric_variables = []
@@ -14629,34 +14450,28 @@
             else:
                 metric_variables.append(v)
         """
-        Computes the final result of the metric.
-        This method should be implemented by subclasses to provide the actual
-        computation logic for their metric.
+        Retrieves the result of the metric.
+        This method should be implemented by subclasses to compute and return the final result based on the internal state.
+        It is called during training and evaluation.
         Returns:
-            The final result of the metric.
+            The result of the metric.
         Raises:
         """
         raise NotImplementedError
         """
-        Computes the final result of the metric in a stateless scope.
-        This method takes a list of metric variables as input and returns the
-        final result of the metric. It is used when the metric needs to be
-        computed outside of a training loop.
+        Retrieves the result of the metric in a stateless manner.
+        This method computes and returns the final result based on the provided `metric_variables`.
+        It is used during evaluation when the model is not training.
         Args:
-                variables.
         Returns:
-            The final result of the metric.
+            The result of the metric.
         Raises:
-                variables.
         """
         mapping = list(zip(self.variables, metric_variables))
             res = self.result()
         """
-        Resets the metric's state in a stateless scope.
-        This method is used when the metric needs to be reset outside of a
-        training loop. It returns an updated list of variable values.
-        Returns:
-            A list of updated variable values.
+        Resets the state of the metric in a stateless manner.
+        This method resets all variables to zero.
         """
         metric_variables = []
             new_v = scope.get_current_value(v)
@@ -14665,81 +14480,71 @@
                 metric_variables.append(v)
     @property
         """
-        Gets the data type of the metric's values.
+        Gets the data type of the metric.
         Returns:
-            The data type of the metric's values.
-        """
-        """
-        Gets the object type of this metric.
+            The data type of the metric.
+        """
+        """
+        Gets the object type of the metric.
         Returns:
-            A string indicating the object type of this metric.
-        """
-        """
-        Adds a variable to track during training.
+            A string representing the object type of the metric.
+        """
+        """
+        Adds a variable to the metric.
         Args:
-                `backend.floatx()`.
-                variable. Defaults to 'sum'.
         Returns:
-            The added variable.
+            A backend.Variable instance representing the added variable.
         Raises:
         """
             initializer = initializers.get(initializer)
             variable = backend.Variable(initializer=initializer, shape=shape, dtype=dtype, trainable=False, aggregation=aggregation, name=name)
         """
-        Adds a weight to track during training.
-        Args:
-                Defaults to None.
-                `backend.floatx()`.
+        Adds a weight to the metric.
+        This method is an alias for `add_variable()` with default parameters.
+        """
+    @property
+        """
+        Gets the list of variables in the metric.
         Returns:
-            The added weight.
-        """
-    @property
-        """
-        Gets a list of variables tracked by this metric.
-        Returns:
-            A list of variables tracked by this metric.
+            A list of backend.Variable instances representing the metric's variables.
         """
         variables = list(self._variables)
             variables.extend(metric.variables)
         """
-        Updates the metric's state and computes its result.
-        This method is used as a shortcut to update the metric's state and
-        compute its result. It takes additional arguments passed to the
-        subclass's implementation of `update_state` and returns the final
-        result of the metric.
+        Calls the metric with the provided arguments.
+        This method updates the state of the metric and returns its result.
+        It is called during training and evaluation.
         Args:
         Returns:
-            The final result of the metric.
-        """
-        """
-        Gets a dictionary containing the metric's configuration.
+            The result of the metric.
+        Raises:
+        """
+        """
+        Gets the configuration of the metric.
         Returns:
-            A dictionary containing the metric's configuration.
+            A dictionary containing the name and data type of the metric.
         """
     @classmethod
         """
-        Creates an instance of this class from a given configuration.
+        Creates a new instance of the metric from its configuration.
         Args:
         Returns:
-            An instance of this class.
-        """
-        """
-        Sets an attribute on this object while tracking its update.
-        This method is used to track updates made to variables and metrics
-        during training. It takes a string name for the attribute and a new
-        value for that attribute.
-        Args:
+            A new instance of the metric.
+        """
+        """
+        Sets an attribute on the metric.
+        This method tracks changes to the metric's internal state.
         """
             value = self._tracker.track(value)
         """
-        Checks that the superclass's `__init__` method was called.
+        Checks if `super().__init__()` is called in the `__init__()` method.
         Raises:
         """
             raise RuntimeError('You forgot to call `super().__init__()` in the `__init__()` method. Go add it!')
         """
-        Gets a string representation of this object.
+        Gets a string representation of the metric.
         Returns:
-            A string representation of this object.
+            A string representing the metric.
         """</t>
         </is>
       </c>
@@ -15170,106 +14975,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>"""
-        Initialize the MultiLabelBinarizer.
-        Parameters
-        ----------
-            Array of unique class labels. If None, all unique labels in y will be used.
-            Whether to return a sparse matrix or not.
-        Attributes
-        ----------
-            Unique class labels.
-            Whether to return a sparse matrix or not.
-        """
-    @_fit_context(prefer_skip_nested_validation=True)
-        """
-        Fit the transformer.
-        Parameters
-        ----------
-            Target values.
-        Returns
-        -------
-            Fitted transformer.
-        """
-            classes = sorted(set(itertools.chain.from_iterable(y)))
-        elif len(set(self.classes)) &lt; len(self.classes):
-            raise ValueError('The classes argument contains duplicate classes. Remove these duplicates before passing them to MultiLabelBinarizer.')
-        else:
-            classes = self.classes
-        dtype = int if all((isinstance(c, int) for c in classes)) else object
-    @_fit_context(prefer_skip_nested_validation=True)
-        """
-        Fit to data, then transform it.
-        Parameters
-        ----------
-            Target values.
-        Returns
-        -------
-            Transformed target values.
-        """
-        class_mapping = defaultdict(int)
-        class_mapping.default_factory = class_mapping.__len__
-        yt = self._transform(y, class_mapping)
-        tmp = sorted(class_mapping, key=class_mapping.get)
-        dtype = int if all((isinstance(c, int) for c in tmp)) else object
-        class_mapping = np.empty(len(tmp), dtype=dtype)
-        yt.indices = np.asarray(inverse[yt.indices], dtype=yt.indices.dtype)
-            yt = yt.toarray()
-        """
-        Transform target values.
-        Parameters
-        ----------
-            Target values.
-        Returns
-        -------
-            Transformed target values.
-        """
-        check_is_fitted(self)
-        class_to_index = self._build_cache()
-        yt = self._transform(y, class_to_index)
-            yt = yt.toarray()
-        """
-        Build the cache for the mapping between class labels and indices.
-        Returns
-        -------
-            Mapping between class labels and indices.
-        """
-        """
-        Transform target values.
-        Parameters
-        ----------
-            Target values.
-            Mapping between class labels and indices.
-        Returns
-        -------
-            Transformed target values.
-        """
-        indices = array.array('i')
-        indptr = array.array('i', [0])
-        unknown = set()
-            index = set()
-                    index.add(class_mapping[label])
-                    unknown.add(label)
-            indices.extend(index)
-            indptr.append(len(indices))
-            warnings.warn('unknown class(es) {0} will be ignored'.format(sorted(unknown, key=str)))
-        data = np.ones(len(indices), dtype=int)
-        """
-        Inverse transform.
-        Parameters
-        ----------
-            Transformed target values.
-        Returns
-        -------
-            Original target values.
-        """
-        check_is_fitted(self)
-            raise ValueError('Expected indicator for {0} classes, but got {1}'.format(len(self.classes_), yt.shape[1]))
-            yt = yt.tocsr()
-                raise ValueError('Expected only 0s and 1s in label indicator.')
-        else:
-            unexpected = np.setdiff1d(yt, [0, 1])
-                raise ValueError('Expected only 0s and 1s in label indicator. Also got {0}'.format(unexpected))</t>
+          <t>Transform labels into a binary format.
+Parameters
+----------
+    List of class names or None. If not provided, classes will be inferred from the input data.
+    Whether to return a sparse matrix (default).
+Attributes
+----------
+    Array containing the unique class names.
+    Function that can be used to invert the binarization.
+Methods
+-------
+    Fit the transformer on the input data.
+    Fit the transformer and transform the input data.
+    Transform the input data using the fitted transformer.
+    Invert the binarization.
+Examples
+--------
+&gt;&gt;&gt; from sklearn.preprocessing import MultiLabelBinarizer
+&gt;&gt;&gt; y = [[1, 2], [3]]
+&gt;&gt;&gt; mlb = MultiLabelBinarizer()
+&gt;&gt;&gt; mlb.fit_transform(y)
+array([[1., 1., 0.],
+       [0., 0., 1.]])</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -16431,36 +16159,38 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>"""
-        Initialize the OneHotEncoder.
-        Parameters:
-        Returns:
-            None
-        """
-        """
-        Fit the OneHotEncoder to the data.
-        Parameters:
-        Returns:
-            self
-        Raises:
-        """
-        """
-        Transform the data using one-hot encoding.
-        Parameters:
-        Returns:
-        Raises:
-        """
-        """
-        Inverse transform the data back to its original form.
-        Parameters:
-        Returns:
-        Raises:
-        """
-        """
-        Get the feature names of the output.
-        Parameters:
-        Returns:
-        """</t>
+          <t>Fit the model to X.
+    Parameters
+    ----------
+        Training set.
+    Returns
+    -------
+        Fitted encoder.
+    """
+```
+```python
+"""
+    Transform X into a one-hot numeric array.
+    Parameters
+    ----------
+        Data to be transformed.
+    Returns
+    -------
+        One-hot encoded data.
+    """
+```
+```python
+"""
+    Transform one-hot numeric array back into its original form.
+    Parameters
+    ----------
+        Data to be transformed back.
+    Returns
+    -------
+        Original data.
+    """
+```
+```python</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -16964,44 +16694,10 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OPTICS Clustering Algorithm.
-Parameters
-----------
-    The minimum number of samples required to form a cluster.
-    The maximum distance between points in a cluster.
-    The metric to use for distance calculation. If 'precomputed', the input X is assumed to be a precomputed kernel matrix.
-    The power parameter of the Minkowski metric.
-    Additional parameters to pass to the metric function.
-    The method to use for clustering. Can be 'dbscan' or 'xi'.
-    The distance between points in a cluster. If None, max_eps is used.
-    The minimum number of points required to form a connected component.
-    Whether to use predecessor correction or not.
-    The minimum size of a cluster.
-    The algorithm to use for computing the graph. Can be 'brute', 'ball_tree', 'kd_tree' or 'auto'.
-    The leaf size of the ball tree or k-d tree.
-    An object to cache results.
-    The number of jobs to run in parallel.
-Attributes
-----------
-    The ordering of points in the graph.
-    The core distances of points in the graph.
-    The reachability distances of points in the graph.
-    The predecessor of each point in the graph.
-    The cluster hierarchy obtained by applying DBSCAN to the graph.
-Returns
--------
-    Fitted estimator.
-Raises
-------
-ValueError
-    If eps is larger than max_eps and not None.
-Examples
---------
-&gt;&gt;&gt; from sklearn.cluster import OPTICS
-&gt;&gt;&gt; X = ...  # your data here
-&gt;&gt;&gt; opt = OPTICS()
-&gt;&gt;&gt; opt.fit(X)
-&gt;&gt;&gt; labels = opt.labels_</t>
+          <t>*,
+             n_jobs: int or None = None):
+@_fit_context(prefer_skip_nested_validation=False)
+array_like or sparse_matrix, y: array_like or None = None):</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -17658,80 +17354,58 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>"""
-    Parameters
-    ----------
-        The categories to encode. If 'auto', then categories are inferred from X.
-        Data type of the encoded values. If None, will be inferred as the data type of the input array.
-        Handle unknown category in fit or transform by either raising an error or using a specified value.
-        Value to use for encoding unknown categories. If not set and handle_unknown is 'use_encoded_value',
-        then np.nan will be used if dtype is a float type, otherwise 0 will be used.
-        The value to use for encoding missing values. If not set, it will be inferred from the data type of the input array.
-        Minimum frequency required to include a category in the mapping. If None, then no filtering is applied.
-        Maximum number of categories allowed per feature. If None, then no filtering is applied.
-    Attributes
-    ----------
-        The categories that were encoded.
-        The value used for encoding unknown categories.
-        The value used for encoding missing values.
-    """
-                                                    Interval(RealNotInt, 0, 1, closed='neither'), None]}
-        """
+          <t>encoded_missing_value=np.nan, min_frequency=None, max_categories=None):
+        """
+        Initialize the OrdinalEncoder.
         Parameters
         ----------
-            The categories to encode. If 'auto', then categories are inferred from X.
-            Data type of the encoded values. If None, will be inferred as the data type of the input array.
-            Handle unknown category in fit or transform by either raising an error or using a specified value.
-            Value to use for encoding unknown categories. If not set and handle_unknown is 'use_encoded_value',
-            then np.nan will be used if dtype is a float type, otherwise 0 will be used.
-            The value to use for encoding missing values. If not set, it will be inferred from the data type of the input array.
-            Minimum frequency required to include a category in the mapping. If None, then no filtering is applied.
-            Maximum number of categories allowed per feature. If None, then no filtering is applied.
-        Notes
-        -----
-        The parameters are stored as attributes of the instance object.
+            The categories to encode.
+            If 'auto', the categories will be inferred from the data.
+            The data type of the output encoding.
+            How to handle unknown values during transform.
+            If 'error', raise an error when an unknown value is encountered.
+            If 'use_encoded_value', use the `unknown_value` parameter for unknown values.
+            The value used to encode unknown categories when `handle_unknown='use_encoded_value'`.
+            The value used to encode missing values in features where the category is not known.
+            The minimum frequency of a category for it to be included in the encoding.
+            The maximum number of categories to include in the encoding.
+        Raises
+        ------
+        ValueError
+            If `unknown_value` is np.nan and the dtype is not a float type.
+        TypeError
+            If `unknown_value` is not an integer or np.nan when `handle_unknown='use_encoded_value'`.
         """
     @_fit_context(prefer_skip_nested_validation=True)
         """
-        Fit the encoder to X.
+        Fit the encoder to the data.
         Parameters
         ----------
-            The data to encode.
-            There is no dependency between target and features for this encoder.
+            The training set.
+            There is no need for a target in a transformer.
         Returns
         -------
         self
-        Notes
-        -----
-        If handle_unknown is 'use_encoded_value', then a ValueError will be raised if unknown categories are present in X,
-        unless an unknown value has been specified. If an unknown value has been specified, it will be used to encode the unknown categories.
-        """
-                    raise ValueError(f'When unknown_value is np.nan, the dtype parameter should be a float dtype. Got {self.dtype}.')
-            elif not isinstance(self.unknown_value, numbers.Integral):
-                raise TypeError(f"unknown_value should be an integer or np.nan when handle_unknown is 'use_encoded_value', got {self.unknown_value}.")
-        elif self.unknown_value is not None:
-            raise TypeError(f"unknown_value should only be set when handle_unknown is 'use_encoded_value', got {self.unknown_value}.")
-        fit_results = self._fit(X, handle_unknown=self.handle_unknown, force_all_finite='allow-nan', return_and_ignore_missing_for_infrequent=True)
-        cardinalities = [len(categories) for categories in self.categories_]
-                    cardinalities[feature_idx] -= len(infrequent)
-                cardinalities[cat_idx] -= 1
-                    raise ValueError(f'The used value for unknown_value {self.unknown_value} is one of the values already used for encoding the seen categories.')
-                invalid_features = [cat_idx for cat_idx, cardinality in enumerate(cardinalities) if cat_idx in self._missing_indices and 0 &lt;= self.encoded_missing_value &lt; cardinality]
-                        invalid_features = self.feature_names_in_[invalid_features]
+        Raises
+        ------
+        ValueError
+            If `unknown_value` is np.nan and the dtype is not a float type.
+        TypeError
+            If `unknown_value` is not an integer or np.nan when `handle_unknown='use_encoded_value'`.
+        """
         """
         Transform the data.
         Parameters
         ----------
-            The data to transform.
+            The input data to be transformed.
         Returns
         -------
-            The transformed data.
-        """
-        check_is_fitted(self, 'categories_')
-        X_int, X_mask = self._transform(X, handle_unknown=self.handle_unknown, force_all_finite='allow-nan', ignore_category_indices=self._missing_indices)
-        X_trans = X_int.astype(self.dtype, copy=False)
-            X_trans[X_missing_mask, cat_idx] = self.encoded_missing_value
-            X_trans[~X_mask] = self.unknown_value</t>
+            The encoded data.
+        Raises
+        ------
+        ValueError
+            If the shape of the input data is incorrect.
+        """</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -17903,16 +17577,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A 1D pooling layer.
-    This layer applies a pooling operation along the time axis to downsample the input data.
+          <t>1D pooling layer.
+    This layer applies a specified pooling function to each spatial location in an input along the channels axis.
+    It reduces the size of the output by taking the maximum or average value over a certain window.
     Args:
     Returns:
+        Output tensor after applying the specified pooling function.
     Raises:
     Examples:
-        &gt;&gt;&gt; from tensorflow.keras.layers import Input, Pooling1D
-        &gt;&gt;&gt; inputs = Input(shape=(10,))
-        &gt;&gt;&gt; pooled = Pooling1D(pool_size=2, strides=2)(inputs)
-        &gt;&gt;&gt; print(pooled.shape)  # (None, 5)</t>
+        &gt;&gt;&gt; model = Sequential()
+        &gt;&gt;&gt; model.add(Pooling1D(pool_size=(2, 1), strides=2, padding='valid'))
+        &gt;&gt;&gt; model.add(Flatten(input_shape=(10, 20)))</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -18103,23 +17778,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>**kwargs):
-    """
-    Initializes the Pooling2D layer.
-    Args:
-    Returns:
-        None
-    """
-"""
-    Applies the pooling operation to the input data.
-    Args:
-    Returns:
-    """
-"""
-    Computes the shape of the output tensor.
-    Args:
-    Returns:
-    """</t>
+          <t>Pooling 2D layer.
+This layer performs a pooling operation on the input data. Pooling reduces spatial dimensions of the input data by taking the maximum or average value across each window defined by `pool_size` and `strides`.
+Arguments:
+Keyword Arguments:
+Returns:
+Raises:</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -18323,16 +17987,20 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pool 3D input data.
-This layer applies a pooling operation to each spatial dimension of the input tensor.
-    Args:
-            One of channels_last (default) or channels_first.
-    Returns:
-    Raises:
-    Examples:
-        &gt;&gt;&gt; pooling = Pooling3D(pool_function='max', pool_size=(2, 2, 2), strides=None)
-        &gt;&gt;&gt; input_tensor = tf.random.normal((1, 32, 32, 32, 1))
-        &gt;&gt;&gt; output_tensor = pooling.call(input_tensor)</t>
+          <t>Pool 3D data in a Keras layer.
+This layer pools 3D input data with an arbitrary pooling function. The output shape is determined by the size of the pool region.
+Args:
+        It must return outputs after applying the specified pooling operation.
+        If "same", then both the forward and backward differences are taken into account. Default is "valid".
+        Its shape must be compatible with `self.input_spec` which does not include the samples dimension.
+        By default, the model will infer this from your inputs. Default is "channels_last".
+Returns:
+    Output tensor after applying pooling operation.
+Raises:
+Examples:
+    ```python
+inputs = Input(shape=(28, 28, 1))
+pool = Pooling3D(pool_size=(2, 2), strides=2)(inputs)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -18663,80 +18331,67 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>"""
-        Initializes the PrincipalComponentAnalysis object.
-        Parameters
-        ----------
-            Number of principal components to keep. If None, all components are kept.
-            Method used for decomposition. 'eigen' uses eigenvalue decomposition,
-            Whether to whiten the data after projection.
+        Initializes a PrincipalComponentAnalysis object.
         Raises
         ------
-        AttributeError
-            If an invalid solver is specified or if n_components is not a positive integer.
         """
         """
         Fits the model to the input data.
         Parameters
         ----------
-            The input data.
-            Not used.
+            Input data.
         Returns
         -------
         self
-            The fitted object.
         Raises
         ------
-        AttributeError
-            If the object has not been fitted yet.
         """
         """
         Internal method for fitting the model to the input data.
         Parameters
         ----------
-            The input data.
+            Input data.
         Returns
         -------
         self
-            The fitted object.
-        """
-        """
-        Projects the input data onto the lower-dimensional space.
+        Raises
+        ------
+        """
+        """
+        Transforms the input data using the principal components retained by this object.
         Parameters
         ----------
-            The input data to be projected.
+            Input data
         Returns
         -------
-            The projected data.
         Raises
         ------
-        AttributeError
-            If the object has not been fitted yet.
         """
         """
         Calculates the covariance matrix of the input data.
         Parameters
         ----------
-            The input data.
+            Input data
         Returns
         -------
-            The covariance matrix of the input data.
-        """
-        """
-        Decomposes the input matrix using eigenvalue or singular value decomposition.
+            Covariance matrix
+        """
+        """
+        Decomposes the input matrix using either eigenvalue decomposition or singular value decomposition.
         Parameters
         ----------
-            The input matrix to be decomposed.
-            The number of samples in the data.
+            Input matrix
+            Number of samples
         Returns
         -------
-            The eigenvalues of the input matrix.
-            The eigenvectors of the input matrix.
+            Eigenvalues
+            Eigenvectors
         """
         """
         Calculates the loadings for each principal component.
         Returns
         -------
-            The loadings for each principal component.
+            Loadings
         """</t>
         </is>
       </c>
@@ -19163,11 +18818,10 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>epsilon: float = 1e-07, centered: bool = False, name: str = 'RMSprop', **kwargs):
-        """
-        Initializes the optimizer with the given parameters.
+          <t>"""
+        Initializes the RMSProp optimizer.
         Args:
-        Raises:
+        Keyword Args:
         """
         super(RMSprop, self).__init__(name, **kwargs)
             raise ValueError('`momentum` must be between [0, 1].')
@@ -19176,17 +18830,17 @@
         Args:
         """
         """
-        Prepares the local values for the optimization step.
+        Prepare the local variables.
         Args:
         """
         super(RMSprop, self)._prepare_local(var_device, var_dtype, apply_state)
         rho = array_ops.identity(self._get_hyper('rho', var_dtype))
         apply_state[var_device, var_dtype].update(dict(neg_lr_t=-apply_state[var_device, var_dtype]['lr_t'], epsilon=tensor_conversion.convert_to_tensor_v2_with_dispatch(self.epsilon, var_dtype), rho=rho, momentum=array_ops.identity(self._get_hyper('momentum', var_dtype)), one_minus_rho=1.0 - rho))
         """
-        Applies the optimizer to a dense resource variable.
+        Applies the RMSProp update.
         Args:
         Returns:
-            The operation to update the variable.
+            The operation that updates `var`.
         """
         var_device, var_dtype = (var.device, var.dtype.base_dtype)
         coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
@@ -19204,10 +18858,10 @@
                 denom_t = rms_t - math_ops.square(mg_t)
             var_t = var - coefficients['lr_t'] * grad / (math_ops.sqrt(denom_t) + coefficients['epsilon'])
         """
-        Applies the optimizer to a sparse resource variable.
+        Applies the RMSProp update to a sparse variable.
         Args:
         Returns:
-            The operation to update the variable.
+            The operation that updates `var`.
         """
         var_device, var_dtype = (var.device, var.dtype.base_dtype)
         coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
@@ -19973,29 +19627,30 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>criterion='threshold', k_best=10, max_iter=10, verbose=False):
-        """
-        Initialize the SelfTrainingClassifier object.
+          <t>"""
+        Initialize the self-training classifier.
         Parameters
         ----------
-            The base estimator object.
-            The deprecated base estimator object. Use `estimator` instead.
-            The threshold for selecting samples in the 'threshold' criterion.
-            The criterion to use for selecting samples:
-            The number of samples to select in the 'k_best' criterion.
-            The maximum number of iterations. If not provided, the classifier will continue until all samples are labeled.
-            Whether to print information about each iteration.
-        Raises
-        ------
-        ValueError
-            If `estimator` is None and `base_estimator` is 'deprecated'.
-            If `estimator` is not None and `base_estimator` is not 'deprecated'.
-        """
-        """
-        Get the trained base estimator object.
+            The base estimator object for prediction.
+            The base estimator object that is being deprecated in favor of `estimator`.
+            The threshold for selecting the best predictions when using 'threshold' as the criterion.
+            The criterion to use for selecting the best predictions.
+            The number of top-scoring samples to select when using 'k_best' as the criterion.
+            The maximum number of iterations. If set to `None`, the algorithm will run until all samples are labeled.
+            Whether to print progress messages during training.
+        Attributes
+        ----------
+            The fitted base estimator object for prediction.
+            The transduced labels of the previously unlabeled samples.
+            The iteration number when each sample was labeled.
+            The current iteration number.
+            The reason for terminating the algorithm.
+        """
+        """
+        Get the fitted base estimator object for prediction.
         Returns
         -------
-            The trained base estimator object.
+            The fitted base estimator object for prediction.
         """
             estimator_ = clone(self.base_estimator)
             warn('`base_estimator` has been deprecated in 1.6 and will be removed in 1.8. Please use `estimator` instead.', FutureWarning)
@@ -20005,16 +19660,17 @@
             raise ValueError('You must pass only one estimator to SelfTrainingClassifier. Use `estimator`.')
         else:
             estimator_ = clone(self.estimator)
-    @_fit_context(prefer_skip_nested_validation=False)
-        """
-        Train the classifier on the provided data.
+        """
+        Fit the model to the training data.
         Parameters
         ----------
-            The feature matrix.
-            The target vector.
+            The training data.
+            The target labels for the training data.
         Returns
         -------
-            The trained SelfTrainingClassifier object.
+            The fitted model instance.
+        Raises
+        ------
         """
         _raise_for_params(params, self, 'fit')
         X, y = validate_data(self, X, y, accept_sparse=['csr', 'csc', 'lil', 'dok'], ensure_all_finite=False)
@@ -20037,108 +19693,70 @@
             has_label[selected_full] = True
                 break
                 print(f'End of iteration {self.n_iter_}, added {selected_full.shape[0]} new labels.')
-    @available_if(_estimator_has('predict'))
-        """
-        Predict labels for the provided samples using the trained estimator.
+        """
+        Predict the labels of new samples based on the transduction of previously unlabeled samples.
         Parameters
         ----------
-            The feature matrix.
+            The new data to be predicted.
         Returns
         -------
-            The predicted labels.
+            The predicted labels for the new data.
+        Raises
+        ------
         """
         check_is_fitted(self)
         _raise_for_params(params, self, 'predict')
             routed_params = process_routing(self, 'predict', **params)
         else:
             routed_params = Bunch(estimator=Bunch(predict={}))
-        X = validate_data(self, X, accept_sparse=True, ensure_all_finite=False, reset=False)
-    predict.__doc__ += """\
-        Notes
-        -----
-        See the documentation of the `predict` method of the base estimator for more information on the specific implementation.
-        """
-    @available_if(_estimator_has('predict_proba'))
-        """
-        Predict probabilities for each class in the provided samples using the trained estimator.
+        """
+        Predict the probabilities of each class label for new samples based on the transduction of previously unlabeled samples.
         Parameters
         ----------
-            The feature matrix.
+            The new data to be predicted.
         Returns
         -------
-            The predicted probabilities.
+            The predicted probabilities for each class label for the new data.
+        Raises
+        ------
         """
         check_is_fitted(self)
         _raise_for_params(params, self, 'predict_proba')
             routed_params = process_routing(self, 'predict_proba', **params)
         else:
             routed_params = Bunch(estimator=Bunch(predict_proba={}))
-        X = validate_data(self, X, accept_sparse=True, ensure_all_finite=False, reset=False)
-    predict_proba.__doc__ += """\
-        Notes
-        -----
-        See the documentation of the `predict_proba` method of the base estimator for more information on the specific implementation.
-        """
-    @available_if(_estimator_has('decision_function'))
-        """
-        Predict a decision value for each sample in the provided array using the trained estimator.
+        """
+        Compute the decision function for new samples based on the transduction of previously unlabeled samples.
         Parameters
         ----------
-            The feature matrix.
+            The new data to be predicted.
         Returns
         -------
-            The predicted decision values.
+            The decision function values for each sample in `X`.
+        Raises
+        ------
         """
         check_is_fitted(self)
         _raise_for_params(params, self, 'decision_function')
             routed_params = process_routing(self, 'decision_function', **params)
         else:
             routed_params = Bunch(estimator=Bunch(decision_function={}))
-        X = validate_data(self, X, accept_sparse=True, ensure_all_finite=False, reset=False)
-    decision_function.__doc__ += """\
-        Notes
-        -----
-        See the documentation of the `decision_function` method of the base estimator for more information on the specific implementation.
-        """
-    @available_if(_estimator_has('predict_log_proba'))
-        """
-        Predict log-probabilities for each class in the provided samples using the trained estimator.
+        """
+        Predict the log-probabilities of each class label for new samples based on the transduction of previously unlabeled samples.
         Parameters
         ----------
-            The feature matrix.
+            The new data to be predicted.
         Returns
         -------
-            The predicted log-probabilities.
+            The predicted log-probabilities for each class label for the new data.
+        Raises
+        ------
         """
         check_is_fitted(self)
         _raise_for_params(params, self, 'predict_log_proba')
             routed_params = process_routing(self, 'predict_log_proba', **params)
         else:
-            routed_params = Bunch(estimator=Bunch(predict_log_proba={}))
-        X = validate_data(self, X, accept_sparse=True, ensure_all_finite=False, reset=False)
-    predict_log_proba.__doc__ += """\
-        Notes
-        -----
-        See the documentation of the `predict_log_proba` method of the base estimator for more information on the specific implementation.
-        """
-    @available_if(_estimator_has('score'))
-        """
-        Compute the accuracy of the classifier on the provided data.
-        Parameters
-        ----------
-            The feature matrix.
-            The target vector.
-        Returns
-        -------
-            The accuracy of the classifier.
-        """
-        check_is_fitted(self)
-        _raise_for_params({}, self, 'score')
-            routed_params = process_routing(self, 'score', {})
-        else:
-            routed_params = Bunch(estimator=Bunch(score={}))
-        X, y = validate_data(self, X, y, accept_sparse=['csr', 'csc', 'lil', 'dok'], ensure_all_finite=False)
-    score.__doc__ +=</t>
+            routed_params = Bunch(estimator=Bunch(predict_log_proba={}))</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -20397,30 +20015,30 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>**kwargs):
-    """
-    Initializes the SeparableConv layer.
+          <t>Separable Convolutional Layer.
+A separable convolutional layer that separates the depthwise and pointwise convolutions.
     Args:
-    """
-    super(SeparableConv, self).__init__(rank=rank, filters=filters, kernel_size=kernel_size, strides=strides, padding=padding, data_format=data_format, dilation_rate=dilation_rate, activation=activation, use_bias=use_bias, bias_initializer=bias_initializer, bias_regularizer=bias_regularizer, activity_regularizer=activity_regularizer, bias_constraint=bias_constraint, trainable=trainable, name=name, **kwargs)
-"""
-    Builds the SeparableConv layer.
-    Args:
-    Raises:
-    """
-    input_shape = tensor_shape.TensorShape(input_shape)
-    channel_axis = self._get_channel_axis()
-        raise ValueError('The channel dimension of the inputs should be defined. Found `None`.')
-    input_dim = int(input_shape[channel_axis])
-    depthwise_kernel_shape = self.kernel_size + (input_dim, self.depth_multiplier)
-    pointwise_kernel_shape = (1,) * self.rank + (self.depth_multiplier * input_dim, self.filters)
-    else:
-"""
-    This method should be overridden in subclasses.
-    Args:
-    Raises:
-    """
-    raise NotImplementedError</t>
+            The first three integers represent the spatial dimensions (height, width, and depth) of
+            the convolution window. The fourth integer represents the number of input channels.
+            the convolution along the height and width. Defaults to 1.
+            The ordering of rows, columns, and depthmap dimensions in memory.
+            dilation rates to sample points on the windows. Defaults to 1.
+            Defaults to 1.
+            no activation is applied (ie. 'linear' activation). If the string 'relu' is found in
+            the string, "relu" is assumed, rather than v2 ("relu6"). Defaults to None.
+            Defaults to 'glorot_uniform'.
+            Defaults to 'glorot_uniform'.
+            If None no regularizer is applied. Defaults to None.
+            If None no regularizer is applied. Defaults to None.
+            regularizer is applied. Defaults to None.
+            applying dropout). If None no regularizer is applied. Defaults to None.
+            An instance of the `Constraint` class. If None no constraint is applied. Defaults to None.
+            An instance of the `Constraint` class. If None no constraint is applied. Defaults to None.
+            the `Constraint` class. If None no constraint is applied. Defaults to None.
+            Defaults to True.
+    Returns:
+        A Keras `SeparableConv` layer object.
+    Raises:</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -20698,12 +20316,50 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>"""
-    Initializes the SeparableConv1D instance.
+          <t>A separable 1D convolution layer.
+    convolution and another for the pointwise convolution. This is based on the paper:
+    "Deep Residual Learning for Image Recognition" by Kaiming He et al.
     Args:
+            the size of the depthwise convolution kernel. If a tuple, it should contain
+            one element.
+            convolution. One of 'valid' or 'causal'. Defaults to 'valid'.
+            or 'channels_last'. Defaults to None.
+            specifying the dilation rate for each dimension of the depthwise convolution.
+            If a tuple, it should contain one element. Defaults to 1.
+            the output of the depthwise convolution. Defaults to 1.
+            One of 'relu', 'tanh', etc., or a callable that takes the output as input.
+            Defaults to None.
+            convolution. Defaults to True.
+            depthwise kernel weights. One of 'glorot_uniform', etc. Defaults to
+            'glorot_uniform'.
+            pointwise kernel weights. One of 'glorot_uniform', etc. Defaults to
+            'glorot_uniform'.
+            One of 'zeros', etc. Defaults to 'zeros'.
+            to the depthwise kernel weights. One of 'l1', 'l2', etc., or a callable that
+            takes the output as input. Defaults to None.
+            to the pointwise kernel weights. One of 'l1', 'l2', etc., or a callable that
+            takes the output as input. Defaults to None.
+            bias terms. One of 'l1', 'l2', etc., or a callable that takes the output as
+            input. Defaults to None.
+            output of the layer. One of 'l1', 'l2', etc., or a callable that takes the
+            output as input. Defaults to None.
+            depthwise kernel weights. One of 'max_norm', etc., or a callable that takes
+            the output as input. Defaults to None.
+            pointwise kernel weights. One of 'max_norm', etc., or a callable that takes
+            the output as input. Defaults to None.
+            bias terms. One of 'max_norm', etc., or a callable that takes the output as
+            input. Defaults to None.
+    Returns:
     Raises:
+    Examples:
+        &gt;&gt;&gt; x = tf.keras.Input(shape=(100,))
+        &gt;&gt;&gt; conv1d = SeparableConv1D(32, 3)
+        &gt;&gt;&gt; outputs = conv1d(x)
     """
-        super(SeparableConv1D, self).__init__(rank=1, filters=filters, kernel_size=kernel_size, strides=strides, padding=padding, data_format=data_format, dilation_rate=dilation_rate, depth_multiplier=depth_multiplier, activation=activations.get(activation), use_bias=use_bias, depthwise_initializer=initializers.get(depthwise_initializer), pointwise_initializer=initializers.get(pointwise_initializer), bias_initializer=initializers.get(bias_initializer), depthwise_regularizer=regularizers.get(depthwise_regularizer), pointwise_regularizer=regularizers.get(pointwise_regularizer), bias_regularizer=regularizers.get(bias_regularizer), activity_regularizer=regularizers.get(activity_regularizer), depthwise_constraint=constraints.get(depthwise_constraint), pointwise_constraint=constraints.get(pointwise_constraint), bias_constraint=constraints.get(bias_constraint), **kwargs)</t>
+        """
+        Call the separable convolution operation.
+        Args:
+        Returns:</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -20960,15 +20616,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Initializes a separable convolutional layer.
+          <t>A separable convolution layer (also known as depthwise separable convolution).
+    This layer splits a 4D input tensor into two separate tensors, one for the depthwise convolution
+    and another for the pointwise convolution. The output is then the result of combining these two
+    tensors.
     Args:
+            separable convolution window.
+            convolution. Defaults to (1, 1).
+            channel. Defaults to 1.
     Returns:
+        A tensor with shape (batch_size, filters, height, width).
     Raises:
     Examples:
-        &gt;&gt;&gt; from tensorflow.keras.layers import SeparableConv2D
-        &gt;&gt;&gt; layer = SeparableConv2D(32, (3, 3), activation='relu')
-        &gt;&gt;&gt; inputs = tf.ones((1, 28, 28, 1))
-        &gt;&gt;&gt; outputs = layer(inputs)</t>
+        &gt;&gt;&gt; x = tf.keras.Input(shape=(28, 28, 1))
+        &gt;&gt;&gt; conv = SeparableConv2D(32, (3, 3), activation='relu')(x)
+        &gt;&gt;&gt; model = tf.keras.Model(inputs=x, outputs=conv)
+        &gt;&gt;&gt; print(model.summary())</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -22250,8 +21913,28 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>groups=None, feature_groups=None):
-        super(SequentialFeatureSelector, self).__init__()</t>
+          <t>"""
+        Fit the model to the training data.
+        Parameters
+        ----------
+            The input data.
+            The target values.
+            Group labels for each sample.
+        Returns
+        -------
+            Fitted estimator.
+        """
+        # ... (rest of the code remains the same)
+        """
+        Transform the input data into a new format with only the selected features.
+        Parameters
+        ----------
+            The input data.
+        Returns
+        -------
+            The transformed data.
+        """
+        # ... (rest of the code remains the same)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -22528,51 +22211,78 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>_HAS_AGGREGATE_GRAD = True
-        """
-        Initializes the SGD optimizer.
-        Args:
-        """
+          <t>"""
+    Stochastic Gradient Descent (SGD) optimizer.
+    Args:
+            the variable's initializer. Default is 0.0.
+    Keyword Args:
+    Attributes:
+    Raises:
+    """
+                 learning_rate=0.01,
+                 momentum=0.0,
+                 nesterov=False,
+                 name='SGD',
+                 **kwargs):
         super(SGD, self).__init__(name, **kwargs)
             raise ValueError('`momentum` must be between [0, 1].')
         """
-        Creates slots for the optimizer.
+        Create slots for the `self._momentum` variables.
         Args:
         """
         """
-        Prepares local variables for the optimizer.
+        Prepare local method to prepare the `apply_state` dictionary.
         Args:
         """
         super(SGD, self)._prepare_local(var_device, var_dtype, apply_state)
         apply_state[var_device, var_dtype]['momentum'] = array_ops.identity(self._get_hyper('momentum', var_dtype))
         """
-        Applies the optimizer to a dense variable.
+        Apply the gradients for a dense variable.
         Args:
         Returns:
-            An instance of `ResourceApplyKerasMomentum` if momentum is used, otherwise an instance of `ResourceApplyGradientDescent`.
+            A Tensor representing the updated variable value.
         """
         var_device, var_dtype = (var.device, var.dtype.base_dtype)
         coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
             momentum_var = self.get_slot(var, 'momentum')
-        else:
-        """
-        Applies the optimizer to a sparse variable with duplicate indices.
+                var=var.handle,
+                accum=momentum_var.handle,
+                lr=coefficients['lr_t'],
+                grad=grad,
+                momentum=coefficients['momentum'],
+                use_locking=self._use_locking,
+                use_nesterov=self.nesterov)
+        else:
+                var=var.handle, alpha=coefficients['lr_t'], delta=grad, use_locking=self._use_locking)
+        """
+        Apply the gradients for a sparse variable.
         Args:
         Returns:
-            An instance of `ResourceApplyKerasMomentum` if momentum is used, otherwise an instance of `ResourceScatterAdd`.
+            A Tensor representing the updated variable value.
         """
         else:
             var_device, var_dtype = (var.device, var.dtype.base_dtype)
             coefficients = kwargs.get('apply_state', {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
-        """
-        Applies the optimizer to a sparse variable.
+                resource=var.handle,
+                indices=indices,
+                updates=-grad * coefficients['lr_t'])
+        """
+        Apply the gradients for a sparse variable.
         Args:
         Returns:
-            An instance of `ResourceApplyKerasMomentum` if momentum is used, otherwise an instance of `ResourceSparseApplyKerasMomentum`.
+            A Tensor representing the updated variable value.
         """
         var_device, var_dtype = (var.device, var.dtype.base_dtype)
         coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
-        momentum_var = self.get_slot(var, 'momentum')</t>
+        momentum_var = self.get_slot(var, 'momentum')
+            var=var.handle,
+            accum=momentum_var.handle,
+            lr=coefficients['lr_t'],
+            grad=grad,
+            indices=indices,
+            momentum=coefficients['momentum'],
+            use_locking=self._use_locking,
+            use_nesterov=self.nesterov)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -22896,64 +22606,122 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>n_classes: int = None, random_seed: int = None, print_progress: int = 0) -&gt; None:
+          <t>print_progress: int = 0):
         """
         Initializes the model with given parameters.
-        Args:
-        Raises:
+        Parameters
+        ----------
+            Learning rate.
+            Number of iterations to run the model for.
+            Regularization strength.
+            Number of minibatches to use during training.
+            Number of classes in the problem. If not specified, it will be inferred from y.
+            Random seed for reproducibility.
+            Verbosity level for printing progress.
+        Attributes
+        ----------
+            Learning rate.
+            Number of iterations to run the model for.
+            Regularization strength.
+            Number of minibatches to use during training.
+            Number of classes in the problem.
+            Random seed for reproducibility.
+            Verbosity level for printing progress.
+            List of costs at each iteration.
         """
         _BaseModel.__init__(self)
         _IterativeModel.__init__(self)
         _Classifier.__init__(self)
         _MultiClass.__init__(self)
         """
-        Computes the net input of the model.
-        Args:
-        Returns:
-        """
-        """
-        Applies the softmax activation function.
-        Args:
-        Returns:
+        Computes net input for a given X.
+        Parameters
+        ----------
+            Input data.
+        Returns
+        -------
+        np.ndarray
+            Net input.
+        """
+        """
+        Applies softmax activation function to z.
+        Parameters
+        ----------
+            Input data.
+        Returns
+        -------
+        np.ndarray
+            Activated output.
         """
         e_x = np.exp(z - z.max(axis=1, keepdims=True))
         out = e_x / e_x.sum(axis=1, keepdims=True)
         """
-        Computes the cross-entropy loss.
-        Args:
-        Returns:
-        """
-        """
-        Computes the cost function.
-        Args:
-        Returns:
+        Computes cross-entropy loss between output and y_target.
+        Parameters
+        ----------
+            Predicted probabilities.
+            True labels.
+        Returns
+        -------
+        np.ndarray
+            Cross-entropy loss.
+        """
+        """
+        Computes cost from cross-entropy loss.
+        Parameters
+        ----------
+            Cross-entropy loss.
+        Returns
+        -------
+        float
+            Cost.
         """
         L2_term = self.l2 * np.sum(self.w_ ** 2)
         cross_entropy = cross_entropy + L2_term
         """
-        Converts output probabilities to class labels.
-        Args:
-        Returns:
-        """
-        """
-        Performs a forward pass through the network.
-        Args:
-        Returns:
+        Converts class labels to indices.
+        Parameters
+        ----------
+            Activated output.
+        Returns
+        -------
+        np.ndarray
+            Class labels as indices.
+        """
+        """
+        Performs forward pass on X.
+        Parameters
+        ----------
+            Input data.
+        Returns
+        -------
+        np.ndarray
+            Predicted probabilities.
         """
         z = self._net_input(X)
         a = self._softmax_activation(z)
         """
-        Computes the gradients of the loss with respect to the weights and biases.
-        Args:
-        Returns:
+        Computes gradients of loss with respect to output and weights.
+        Parameters
+        ----------
+            Input data.
+            True labels.
+            Predicted probabilities.
         """
         grad_loss_wrt_out = y_true - y_probas
         grad_loss_wrt_w = -np.dot(X.T, grad_loss_wrt_out)
         grad_loss_wrt_b = -np.sum(grad_loss_wrt_out, axis=0)
         """
-        Trains the model on the given data.
-        Args:
-        Returns:
+        Fits the model to data (X, y).
+        Parameters
+        ----------
+            Input data.
+            Target labels.
+            Whether to initialize parameters.
+        Returns
+        -------
+        SoftmaxRegression
+            Fitted model instance.
         """
         y_enc = self._one_hot(y=y, n_labels=self.n_classes, dtype=np.float_)
         rgen = np.random.RandomState(self.random_seed)
@@ -22964,9 +22732,14 @@
             cross_ent = self._cross_entropy(output=y_probas, y_target=y_enc)
             cost = self._cost(cross_ent)
         """
-        Predicts the class probabilities for the given input.
-        Args:
-        Returns:
+        Predicts probabilities for X.
+        Parameters
+        ----------
+            Input data.
+        Returns
+        -------
+        np.ndarray
+            Predicted probabilities.
         """</t>
         </is>
       </c>
@@ -23680,32 +23453,33 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Target Encoder.
-Encodes target variable into new features. If the target is binary or continuous,
-it uses the TargetEncoder with smoothing, if it's categorical, it uses the
-CategoricalEncoder.
+          <t>TargetEncoder class.
+Encodes target variable using the Target Encoder method.
 Parameters
 ----------
-    List of categories to encode.
-    Type of target variable ('binary', 'continuous' or 'multiclass').
-    Smoothing parameter for binary/continuous targets. If 'auto',
-    it will be estimated automatically from the data.
-    Number of folds to use in cross-validation.
-    Whether to shuffle the data before splitting it into train and test sets.
-    Controls the shuffling applied to the data before applying KFold split.
+    List of categories to encode. If 'auto', will be inferred from data.
+    Type of target variable. If 'auto', will be inferred from data.
+    Smoothness parameter for encoding. If 'auto', will be determined automatically.
+    Number of folds for cross-validation.
+    Whether to shuffle the data before encoding.
+    Controls shuffling and randomization.
 Attributes
 ----------
-    Encoded features for each sample.
-    Mean target value for each feature.
-    Class labels for multi-class problems.
+    List of categories used for encoding.
+    Type of target variable inferred from data.
+    Class labels for multiclass classification.
+    Encoded feature values.
+    Mean value of target variable.
 Methods
 -------
 fit(X, y)
-    Fit the encoder to X and y.
+    Fits the encoder to data.
+fit_transform(X, y)
+    Fits the encoder to data and transforms it.
 transform(X)
-    Transform X using the fitted encoder.
+    Transforms the input data using the fitted encoder.
 get_feature_names_out(input_features=None)
-    Get output feature names for transformation.</t>
+    Returns feature names for output encoded features.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -23981,33 +23755,37 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>"""
-        Initializes the transformer.
-        """
-        """
-        Fits the transformer to the input data.
+        Initializes the TransactionEncoder instance.
+        """
+        """
+        Fits the encoder to the given data.
         Parameters
         ----------
-            Input data. Each row represents a sample and each column represents a transaction.
-            The transactions are expected to be lists or other iterable objects of items.
+            The transaction data to be encoded. Each inner list represents a single
+            transaction, and each integer within an inner list corresponds to an item.
         Returns
         -------
-            Fitted transformer.
+        self
+        Raises
+        ------
+        None
         """
         unique_items = set()
                 unique_items.add(item)
         columns_mapping = {}
             columns_mapping[item] = col_idx
         """
-        Transforms the input data into a binary vector representation.
+        Encodes the given transactions into binary vectors.
         Parameters
         ----------
-            Input data. Each row represents a sample and each column represents a transaction.
-            The transactions are expected to be lists or other iterable objects of items.
-            Whether to return the transformed data as a sparse matrix.
+            The transaction data to be encoded. Each inner list represents a single
+            transaction, and each integer within an inner list corresponds to an item.
+            If True, returns a compressed sparse row (CSR) matrix representation;
+            otherwise, returns a dense numpy array.
         Returns
         -------
-        array-like, shape (n_samples, n_columns)
-            Transformed data where each row represents a sample and each column represents an item.
+            The encoded transaction data. A cell at position (row, col) is True if
+            the corresponding item appears in the transaction, False otherwise.
         """
             indptr = [0]
             indices = []
@@ -24021,26 +23799,28 @@
                     col_idx = self.columns_mapping_[item]
                     array[row_idx, col_idx] = True
         """
-        Inverse transforms the binary vector representation back into the original transactions.
+        Transforms the encoded array back into original transactions.
         Parameters
         ----------
-            Transformed data where each row represents a sample and each column represents an item.
+            The encoded transaction data. A cell at position (row, col) is True if
+            the corresponding item appears in the transaction, False otherwise.
         Returns
         -------
-        list of lists
-            List of transactions where each transaction is represented as a list of items.
-        """
-        """
-        Fits the transformer to the input data and returns the transformed data.
+        list of lists of integers
+            The original transactions.
+        """
+        """
+        Combines fitting and transforming in a single call.
         Parameters
         ----------
-            Input data. Each row represents a sample and each column represents a transaction.
-            The transactions are expected to be lists or other iterable objects of items.
-            Whether to return the transformed data as a sparse matrix.
+            The transaction data to be encoded. Each inner list represents a single
+            transaction, and each integer within an inner list corresponds to an item.
+            If True, returns a compressed sparse row (CSR) matrix representation;
+            otherwise, returns a dense numpy array.
         Returns
         -------
-        array-like, shape (n_samples, n_columns)
-            Transformed data where each row represents a sample and each column represents an item.
+            The encoded transaction data. A cell at position (row, col) is True if
+            the corresponding item appears in the transaction, False otherwise.
         """</t>
         </is>
       </c>
@@ -24174,20 +23954,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Upsampling 1D layer.
-Upsamples the input along the 2nd axis (axis=1).
-#### Args:
-        the output shape will be `(input_shape[0], size * input_shape[1],
-        input_shape[2])`. If size is a tuple of two integers, the output shape
-        will be `(input_shape[0], size[0] * input_shape[1], size[1] *
-        input_shape[2])`.
-#### Returns:
-    A tensor with the same data type as the inputs.
-#### Raises:
-#### Examples:
-&gt;&gt;&gt; from keras.layers import Input, UpSampling1D
-&gt;&gt;&gt; input_tensor = Input(shape=(10,))
-&gt;&gt;&gt; output = UpSampling1D(size=3)(input_tensor)</t>
+          <t>"""
+        Initializes the UpSampling1D layer.
+        Args:
+        """
+        super(UpSampling1D, self).__init__(**kwargs)
+        """
+        Computes the output shape of the layer.
+        Args:
+        Returns:
+            A TensorShape representing the output shape.
+        """
+        input_shape = tensor_shape.TensorShape(input_shape).as_list()
+        size = self.size * input_shape[1] if input_shape[1] is not None else None
+        """
+        Calls the layer on the given inputs.
+        Args:
+        Returns:
+            A tensor with the same shape as the input, but with the specified axis
+                upsampled by the given factor.
+        """
+        output = backend.repeat_elements(inputs, self.size, axis=1)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -24389,21 +24176,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>...
-        """
-        Computes the output shape of the layer.
-        Args:
-        Returns:
-            A tuple representing the shape of the output tensor.
-        """
-        ...
-        """
-        Upsamples the input data.
-        Args:
-        Returns:
-            A tensor with the same number of dimensions as the input, but with a larger spatial size.
-        """
-        ...</t>
+          <t>super(UpSampling2D, self).__init__(**kwargs)
+        raise ValueError('`interpolation` argument should be one of `"nearest"` or `"bilinear"`. ')
+"""
+    Computes the output shape of the layer.
+    Args:
+    Returns:
+        A `TensorShape` instance representing the output shape.
+    """
+    input_shape = tensor_shape.TensorShape(input_shape).as_list()
+        height = self.size[0] * input_shape[2] if input_shape[2] is not None else None
+        width = self.size[1] * input_shape[3] if input_shape[3] is not None else None
+    else:
+        height = self.size[0] * input_shape[1] if input_shape[1] is not None else None
+        width = self.size[1] * input_shape[2] if input_shape[2] is not None else None
+"""
+    This is where the layer's logic lives.
+    Args:
+    Returns:
+        A resized version of `inputs`.
+    """
+                                 interpolation=self.interpolation)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -24574,28 +24367,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Upsampling 3D layer.
-Resizes the input to fit a specified size.
-# Input shape
-    A 5D tensor of shape `(batch_size, channels, rows, cols, depth)` or
-    `(batch_size, rows, cols, channels, depth)` depending on `data_format`.
-# Output shape
-    A 5D tensor with shape `(batch_size, channels, new_rows, new_cols, new_depth)`
-    or `(batch_size, new_rows, new_cols, channels, new_depth)` depending on
-    `data_format`, where `new_rows`, `new_cols`, and `new_depth` are the
-    resized values.
-# Arguments
-        The upsampling factor (number of times to upsample).
-        A string, one of channels_last (with shape `(batch_size, rows,
-            cols, channels, depth)`), or channels_first (with shape
-            `(batch_size, channels, rows, cols, depth)`).
-# Keyword Arguments
-# Returns
-    A tensor with the resized output of the input.
-# Raises
-# Examples
-    ```python
-upsample_3d = UpSampling3D(size=(2, 2, 2), data_format='channels_last')</t>
+          <t>super(UpSampling3D, self).__init__(**kwargs)
+list):
+    """
+    Computes the output shape of the layer.
+    Args:
+    Returns:
+        A tensor shape object representing the output shape.
+    Raises:
+    Examples:
+        &gt;&gt;&gt; from tensorflow.keras.layers import UpSampling3D
+        &gt;&gt;&gt; layer = UpSampling3D(size=(2, 2, 2), data_format='channels_first')
+        &gt;&gt;&gt; input_shape = [1, 10, 10, 20, 20]
+        &gt;&gt;&gt; output_shape = layer.compute_output_shape(input_shape)
+        &gt;&gt;&gt; print(output_shape)
+    """
+    input_shape = tensor_shape.TensorShape(input_shape).as_list()
+        dim1 = self.size[0] * input_shape[2] if input_shape[2] is not None else None
+        dim2 = self.size[1] * input_shape[3] if input_shape[3] is not None else None
+        dim3 = self.size[2] * input_shape[4] if input_shape[4] is not None else None
+    else:
+        dim1 = self.size[0] * input_shape[1] if input_shape[1] is not None else None
+        dim2 = self.size[1] * input_shape[2] if input_shape[2] is not None else None
+        dim3 = self.size[2] * input_shape[3] if input_shape[3] is not None else None
+tf.Tensor):
+    """
+    Calls the UpSampling3D layer.
+    Args:
+    Returns:
+        A 5D tensor representing the output data after upsampling.
+    Examples:
+        &gt;&gt;&gt; from tensorflow.keras.layers import UpSampling3D
+        &gt;&gt;&gt; layer = UpSampling3D(size=(2, 2, 2), data_format='channels_first')
+        &gt;&gt;&gt; inputs = tf.ones((1, 10, 10, 20, 20))
+        &gt;&gt;&gt; outputs = layer.call(inputs)
+    """</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -24749,18 +24555,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1D zero-padding layer.
-    This layer creates a tensor with shape `(batch_size, input_length + padding[0] + padding[1], channels)`
-    padded with zeros on both sides along the time axis.
-    Args:
-    Returns:
-        A tensor with shape `(batch_size, input_length + padding[0] + padding[1], channels)`
-    Raises:
-    Examples:
-        &gt;&gt;&gt; from keras.layers import Input, ZeroPadding1D
-        &gt;&gt;&gt; inputs = Input(shape=(10,))
-        &gt;&gt;&gt; padded_inputs = ZeroPadding1D(padding=2)(inputs)
-        &gt;&gt;&gt; print(padded_inputs.shape)  # (None, 14, 1)</t>
+          <t>"""
+        Initializes the `ZeroPadding1D` layer.
+        See parent class for additional keyword arguments.
+        """
+        """
+        Computes the output shape of the padded input data.
+        Args:
+        Returns:
+            A tuple representing the shape of the padded output data.
+        """
+        """
+        Adds padding to the input along the temporal axis.
+        Args:
+        Returns:
+            A tensor with the padded input data.
+        """</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -25034,25 +24844,37 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Zero-padding layer for 2D input (e.g. images).
-This layer creates a zero padding layer that pads the input along the spatial dimensions only.
-#### Example:
-```python
-inputs = Input(shape=(224, 224, 3))
-padded = ZeroPadding2D((1, 1))(inputs)
-```
-#### Arguments:
-    tuple of two tuples of two ints ((top_pad, bottom_pad), (left_pad, right_pad)).
-        The amount of padding to add on each border.
-        The ordering of the dimensions in the input shape.
-#### Returns:
-#### Raises:
-#### Input shape:
-A 4D tensor with shape `(batch, channels, rows, cols)`.
-#### Output shape:
-A 4D tensor with shape `(batch, channels, rows + padding[0] * 2, cols + padding[1] * 2)`
-    or `(batch, channels, rows + padding[0][0] + padding[0][1], cols + padding[1][0] + padding[1][1])`
-    depending on the value of `data_format`.</t>
+          <t>"""
+    Initializes the layer.
+                    tuple of two tuples of two ints ((top_pad, bottom_pad), (left_pad, right_pad)).
+        The amount of zero-padding to add on each side.
+        (One of many) conventionally accepted data formats. Note that the value boarder is not a valid argument.
+    """
+        super(ZeroPadding2D, self).__init__(**kwargs)
+        elif hasattr(padding, '__len__'):
+            height_padding = conv_utils.normalize_tuple(padding[0], 2, '1st entry of padding')
+            width_padding = conv_utils.normalize_tuple(padding[1], 2, '2nd entry of padding')
+        else:
+        """
+        Computes the output shape.
+        """
+        input_shape = tensor_shape.TensorShape(input_shape).as_list()
+                rows = input_shape[2] + self.padding[0][0] + self.padding[0][1]
+            else:
+                rows = None
+                cols = input_shape[3] + self.padding[1][0] + self.padding[1][1]
+            else:
+                cols = None
+        elif self.data_format == 'channels_last':
+                rows = input_shape[1] + self.padding[0][0] + self.padding[0][1]
+            else:
+                rows = None
+                cols = input_shape[2] + self.padding[1][0] + self.padding[1][1]
+            else:
+                cols = None
+        """
+        The main logic of the layer.
+        """</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -25329,35 +25151,26 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Applies 3D spatial padding to the input.
-This layer creates a tensor with shape `(batch_size, spatial_dim1, spatial_dim2, spatial_dim3, channels)`
-where `spatial_dim1`, `spatial_dim2`, and `spatial_dim3` are one-dimensional sequences of values
-obtained by adding padding to the corresponding dimensions of the input.
-### Input Shape
-* `5` (batch_size, spatial_dim1, spatial_dim2, spatial_dim3, channels)
-### Output Shape
-* `(batch_size, padded_spatial_dim1, padded_spatial_dim2, padded_spatial_dim3, channels)`
-### Arguments
-              First entry is number of entries on the left,
-              second entry is number of entries on the right.
-            - If tuple of 3 tuples of 2 ints:
-            - If `None`, data_format will be inferred from the input shape.
-### Keyword Arguments
-### Returns
-* Output tensor with shape `(batch_size, padded_spatial_dim1, padded_spatial_dim2, padded_spatial_dim3, channels)`.
-### Raises
-### Examples
-```python
-# Create a ZeroPadding3D instance with symmetric padding of 1 on each side
-zpp = ZeroPadding3D(padding=1)
-# Apply the zero-padding to an input tensor
-input_tensor = tf.random.normal((2, 28, 28, 28, 1))
-output_tensor = zpp.call(input_tensor)
-```
-### Notes
-This layer creates a tensor with shape `(batch_size, spatial_dim1, spatial_dim2, spatial_dim3, channels)`
-where `spatial_dim1`, `spatial_dim2`, and `spatial_dim3` are one-dimensional sequences of values
-obtained by adding padding to the corresponding dimensions of the input.</t>
+          <t>Zero-padding layer for 3D data.
+    This layer creates a zero-padded version of the input tensor.
+    It can be used to pad the input tensor with zeros on each axis,
+    or to pad it symmetrically on both sides.
+    Args:
+                 or a tuple of 3 tuples of 2 ints ((left_dim1_pad, right_dim1_pad), 
+                 (left_dim2_pad, right_dim2_pad), (left_dim3_pad, right_dim2_pad)).
+            If an int is provided, it will be used for all axes.
+            If a tuple of 3 ints is provided, it will be used as symmetric padding for each axis.
+            If a tuple of 3 tuples of 2 ints is provided, it will be used as asymmetric padding for each axis.
+            Specifies whether the input tensor's channel dimension is at index 0 (channel-first) or
+            at index -1 (channel-last).
+    Returns:
+        A zero-padded version of the input tensor.
+    Raises:
+    Examples:
+        &gt;&gt;&gt; from keras.layers import ZeroPadding3D
+        &gt;&gt;&gt; input_tensor = tf.constant([[[[1, 2], [3, 4]], [[5, 6], [7, 8]]]])
+        &gt;&gt;&gt; layer = ZeroPadding3D(padding=(1, 1, 1), data_format='channels_first')
+        &gt;&gt;&gt; output = layer.call(input_tensor)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -26017,121 +25830,112 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>"""
-        Check if input is a 2D array or DataFrame with categorical data.
+        Check if X is a valid 2D array and return its shape.
         Parameters
         ----------
-            The input to check.
-            Whether to raise an error on non-numeric values.
+            The input data.
+            If True, raise an error on the first non-finite value encountered in
+            X. Otherwise, propagate NaNs.
         Returns
         -------
-            The input data checked and processed for encoding.
-            Number of samples in the input data.
-            Number of features in the input data.
+            The unique columns in each feature.
+            The number of samples in X.
+            The number of features in X.
         Raises
         ------
         ValueError
-            If input is not a 2D array or DataFrame with categorical data.
-        """
+            If X is not a valid 2D array.
+        """
+            X_temp = check_array(X, dtype=None, force_all_finite=force_all_finite)
+                X = check_array(X, dtype=object, force_all_finite=force_all_finite)
+            else:
+                X = X_temp
+            needs_validation = False
+        else:
+            needs_validation = force_all_finite
+        n_samples, n_features = X.shape
+        X_columns = []
+            Xi = _safe_indexing(X, indices=i, axis=1)
+            Xi = check_array(Xi, ensure_2d=False, dtype=None, force_all_finite=needs_validation)
+            X_columns.append(Xi)
              return_counts=False, return_and_ignore_missing_for_infrequent=False):
         """
-        Fit the encoder to the training set.
+        Fit the encoder to X.
         Parameters
         ----------
             The input data.
-                         default='error'
-            How to handle unknown categories. Options are:
-                    create a new infrequent category for the unknown category.
-            Whether to raise an error on non-numeric values.
-            Whether to return the count of each category.
-            Whether to ignore missing categories for infrequent features.
+            If 'error', make a ValueError if unknown categories are encountered.
+            If 'ignore', set the encoding of unknown rows to 0.
+            If True, raise an error on the first non-finite value encountered in X.
+            Otherwise, propagate NaNs.
+            If True, return the count of each category.
+            If True, ignore missing categories for infrequent features.
         Returns
         -------
-            A dictionary containing information about the fit data.
+            A dictionary containing the number of samples and the counts of each category.
         Raises
         ------
         ValueError
-            If unknown categories are present and ``handle_unknown`` is 'error'.
-        """
+            If unknown categories are encountered.
+        """
+        X_list, n_samples, n_features = self._check_X(X, force_all_finite=force_all_finite)
+        category_counts = []
+        compute_counts = return_counts or self._infrequent_enabled
+            Xi = X_list[i]
+                result = _unique(Xi, return_counts=compute_counts)
+                    cats, counts = result
+                    category_counts.append(counts)
+                else:
+                    cats = result
+            else:
+                    Xi_dtype = object
+                else:
+                    Xi_dtype = Xi.dtype
+                cats = np.array(self.categories[i], dtype=Xi_dtype)
+                    msg = f"In column {i}, the predefined categories have type 'bytes' which is incompatible with values of type '{type(Xi[0]).__name__}'."
+                    raise ValueError(msg)
+                        raise ValueError(f'Nan should be the last element in user provided categories, see categories {cats} in column #{i}')
+                    msg = f'In column {i}, the predefined categories contain duplicate elements.'
+                    raise ValueError(msg)
+                    sorted_cats = np.sort(cats)
+                    error_msg = 'Unsorted categories are not supported for numerical categories'
+                    stop_idx = -1 if np.isnan(sorted_cats[-1]) else None
+                        raise ValueError(error_msg)
+                    diff = _check_unknown(Xi, cats)
+                        msg = 'Found unknown categories {0} in column {1} during fit'.format(diff, i)
+                        raise ValueError(msg)
+                    category_counts.append(_get_counts(Xi, cats))
+            output['category_counts'] = category_counts
+        missing_indices = {}
+                    missing_indices[feature_idx] = categories_for_idx.size - 1
+            output['missing_indices'] = missing_indices
                    warn_on_unknown=False, ignore_category_indices=None):
         """
-        Transform the data.
+        Transform X into a numerical array.
         Parameters
         ----------
             The input data.
-                         default='error'
-            How to handle unknown categories. Options are:
-                    create a new infrequent category for the unknown category.
-            Whether to raise an error on non-numeric values.
-            Whether to issue a warning if unknown categories are present.
-            The indices of categories to ignore.
+            If 'error', make a ValueError if unknown categories are encountered.
+            If 'ignore', set the encoding of unknown rows to 0.
+            If True, raise an error on the first non-finite value encountered in X.
+            Otherwise, propagate NaNs.
+            If True, issue a warning if unknown categories are encountered.
         Returns
         -------
-            The transformed data.
-            A mask indicating which values are valid.
+            The transformed numerical array.
         Raises
         ------
         ValueError
-            If unknown categories are present and ``handle_unknown`` is 'error'.
-        """
-    @property
-        """
-        Get the infrequent categories for each feature.
-        Returns
-        -------
-            The infrequent categories for each feature.
-        """
-        """
-        Check if infrequent encoding is enabled.
-        Returns
-        -------
-        None
-        Notes
-        -----
-        This method checks if ``max_categories`` or ``min_frequency`` is specified,
-        and sets the ``_infrequent_enabled`` attribute accordingly.
-        """
-        """
-        Identify infrequent categories.
-        Parameters
-        ----------
-            The count of each category.
-            Number of samples in the input data.
-            The index of the column to process.
-        Returns
-        -------
-            The indices of infrequent categories.
-        """
-                                         missing_indices):
-        """
-        Fit the infrequent category mapping.
-        Parameters
-        ----------
-            Number of samples in the input data.
-            The count of each category for each feature.
-            The indices of missing categories for each feature.
-        Returns
-        -------
-        None
-        Notes
-        -----
-        This method creates a mapping between infrequent and frequent categories,
-        and sets the ``_infrequent_indices`` attribute accordingly.
-        """
-        """
-        Map infrequent categories.
-        Parameters
-        ----------
-            The transformed data.
-            A mask indicating which values are valid.
-            The indices of categories to ignore.
-        Returns
-        -------
-        None
-        Notes
-        -----
-        This method maps infrequent categories to the transformed data,
-        and sets the ``X_int`` attribute accordingly.
-        """</t>
+            If unknown categories are encountered.
+        """
+            return
+        ignore_category_indices = ignore_category_indices or {}
+            infrequent_idx = self._infrequent_indices[col_idx]
+                continue
+                continue
+            else:
+                rows_to_update = slice(None)
+            X_int[rows_to_update, i] = np.take(mapping, X_int[rows_to_update, i])</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
